--- a/output/analysis/dataset=td,c,tdc-b/scaling_minmax.xlsx
+++ b/output/analysis/dataset=td,c,tdc-b/scaling_minmax.xlsx
@@ -24,13 +24,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="32">
   <si>
+    <t xml:space="preserve">feature=tdf, sf=none</t>
+  </si>
+  <si>
     <t xml:space="preserve">feature=cbf, sf=none</t>
   </si>
   <si>
     <t xml:space="preserve">feature=c_skip, sf=none</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feature=tdf, sf=none</t>
   </si>
   <si>
     <t xml:space="preserve">precision</t>
@@ -51,13 +51,16 @@
     <t xml:space="preserve"> HELDOUT :</t>
   </si>
   <si>
+    <t xml:space="preserve">feature=tdf, sf=kb</t>
+  </si>
+  <si>
     <t xml:space="preserve">feature=cbf, sf=kb</t>
   </si>
   <si>
     <t xml:space="preserve">feature=c_skip, sf=kb</t>
   </si>
   <si>
-    <t xml:space="preserve">feature=tdf, sf=kb</t>
+    <t xml:space="preserve">feature=tdf, sf=sfm</t>
   </si>
   <si>
     <t xml:space="preserve">feature=cbf, sf=sfm</t>
@@ -66,28 +69,25 @@
     <t xml:space="preserve">feature=c_skip, sf=sf</t>
   </si>
   <si>
-    <t xml:space="preserve">feature=tdf, sf=sfm</t>
+    <t xml:space="preserve">feature=tdf, sf-none</t>
   </si>
   <si>
     <t xml:space="preserve">feature-c_skip, sf=none</t>
   </si>
   <si>
-    <t xml:space="preserve">feature=tdf, sf-none</t>
+    <t xml:space="preserve">feature-c_other (ngram, ngram pos, skipgram pos), sf=none</t>
   </si>
   <si>
-    <t xml:space="preserve">feature-c_other (ngram, ngram pos, skipgram pos), sf=none</t>
+    <t xml:space="preserve"> for data from c :</t>
   </si>
   <si>
     <t xml:space="preserve"> n-fold for data from c :</t>
   </si>
   <si>
-    <t xml:space="preserve"> for data from c :</t>
+    <t xml:space="preserve"> for data from td :</t>
   </si>
   <si>
     <t xml:space="preserve"> n-fold for data from td :</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> for data from td :</t>
   </si>
   <si>
     <t xml:space="preserve">for data from c :</t>
@@ -96,19 +96,19 @@
     <t xml:space="preserve">for data from td :</t>
   </si>
   <si>
-    <t xml:space="preserve">feature-c_skip, sf=kb</t>
+    <t xml:space="preserve">feature=tdf, sf-kb</t>
   </si>
   <si>
-    <t xml:space="preserve">feature=tdf, sf-kb</t>
+    <t xml:space="preserve">feature-c_skip, sf=kb</t>
   </si>
   <si>
     <t xml:space="preserve">feature-c_other (ngram, ngram pos, skipgram pos), sf=kb</t>
   </si>
   <si>
-    <t xml:space="preserve">feature-c_skip, sf=sfm</t>
+    <t xml:space="preserve">feature=tdf, sf-sfm</t>
   </si>
   <si>
-    <t xml:space="preserve">feature=tdf, sf-sfm</t>
+    <t xml:space="preserve">feature-c_skip, sf=sfm</t>
   </si>
   <si>
     <t xml:space="preserve">feature-c_other (ngram, ngram pos, skipgram pos), sf=sfm</t>
@@ -489,17 +489,24 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A26" activeCellId="1" sqref="Y:AC A26"/>
+      <selection pane="topLeft" activeCell="P33" activeCellId="0" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.1"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="5.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.1"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="18" min="12" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="23.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="6.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="5.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="8.1"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="24" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -556,13 +563,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>305</v>
@@ -571,13 +578,13 @@
         <v>0</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0.28</v>
+        <v>0.37</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>0.91</v>
+        <v>0.82</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>0.43</v>
+        <v>0.51</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>305</v>
@@ -586,13 +593,13 @@
         <v>0</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>0.39</v>
+        <v>0.28</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>0.78</v>
+        <v>0.91</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>0.52</v>
+        <v>0.43</v>
       </c>
       <c r="Q3" s="0" t="n">
         <v>305</v>
@@ -606,10 +613,10 @@
         <v>0.95</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>1520</v>
@@ -618,13 +625,13 @@
         <v>2</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>0.54</v>
+        <v>0.72</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>0.69</v>
+        <v>0.82</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>1520</v>
@@ -633,13 +640,13 @@
         <v>2</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>0.75</v>
+        <v>0.54</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>0.84</v>
+        <v>0.69</v>
       </c>
       <c r="Q4" s="0" t="n">
         <v>1520</v>
@@ -650,13 +657,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0.77</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>1825</v>
@@ -665,13 +672,13 @@
         <v>7</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0.63</v>
+        <v>0.66</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>0.72</v>
+        <v>0.77</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>0.56</v>
+        <v>0.67</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>1825</v>
@@ -680,13 +687,13 @@
         <v>7</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>0.77</v>
+        <v>0.72</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>0.68</v>
+        <v>0.56</v>
       </c>
       <c r="Q5" s="0" t="n">
         <v>1825</v>
@@ -746,13 +753,13 @@
         <v>0</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>0.77</v>
+        <v>0.72</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>109</v>
@@ -776,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>0.72</v>
+        <v>0.77</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="Q9" s="0" t="n">
         <v>109</v>
@@ -793,13 +800,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>500</v>
@@ -811,7 +818,7 @@
         <v>0.95</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0.93</v>
@@ -823,13 +830,13 @@
         <v>2</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="O10" s="0" t="n">
         <v>0.9</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="Q10" s="0" t="n">
         <v>500</v>
@@ -840,13 +847,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="D11" s="0" t="n">
         <v>0.79</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>0.81</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>609</v>
@@ -870,13 +877,13 @@
         <v>7</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="O11" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="P11" s="0" t="n">
         <v>0.81</v>
-      </c>
-      <c r="P11" s="0" t="n">
-        <v>0.79</v>
       </c>
       <c r="Q11" s="0" t="n">
         <v>609</v>
@@ -936,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>0.84</v>
+        <v>0.81</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>305</v>
@@ -954,10 +961,10 @@
         <v>0.6</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>0.69</v>
+        <v>0.7</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>305</v>
@@ -966,13 +973,13 @@
         <v>0</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="O15" s="0" t="n">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="P15" s="0" t="n">
-        <v>0.67</v>
+        <v>0.69</v>
       </c>
       <c r="Q15" s="0" t="n">
         <v>305</v>
@@ -986,7 +993,7 @@
         <v>0.96</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>0.92</v>
@@ -1016,7 +1023,7 @@
         <v>0.96</v>
       </c>
       <c r="O16" s="0" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="P16" s="0" t="n">
         <v>0.92</v>
@@ -1030,13 +1037,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.81</v>
+        <v>0.79</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>1825</v>
@@ -1048,7 +1055,7 @@
         <v>0.78</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="J17" s="0" t="n">
         <v>0.81</v>
@@ -1060,13 +1067,13 @@
         <v>7</v>
       </c>
       <c r="N17" s="0" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="O17" s="0" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="P17" s="0" t="n">
-        <v>0.79</v>
+        <v>0.81</v>
       </c>
       <c r="Q17" s="0" t="n">
         <v>1825</v>
@@ -1141,13 +1148,13 @@
         <v>0</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="K21" s="0" t="n">
         <v>109</v>
@@ -1156,13 +1163,13 @@
         <v>0</v>
       </c>
       <c r="N21" s="0" t="n">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="O21" s="0" t="n">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="P21" s="0" t="n">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
       <c r="Q21" s="0" t="n">
         <v>109</v>
@@ -1194,7 +1201,7 @@
         <v>0.89</v>
       </c>
       <c r="J22" s="0" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="K22" s="0" t="n">
         <v>500</v>
@@ -1209,7 +1216,7 @@
         <v>0.89</v>
       </c>
       <c r="P22" s="0" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="Q22" s="0" t="n">
         <v>500</v>
@@ -1235,13 +1242,13 @@
         <v>7</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>0.79</v>
+        <v>0.81</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="K23" s="0" t="n">
         <v>609</v>
@@ -1250,13 +1257,13 @@
         <v>7</v>
       </c>
       <c r="N23" s="0" t="n">
-        <v>0.81</v>
+        <v>0.79</v>
       </c>
       <c r="O23" s="0" t="n">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="P23" s="0" t="n">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="Q23" s="0" t="n">
         <v>609</v>
@@ -1316,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>0.82</v>
@@ -1331,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>305</v>
@@ -1346,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="N27" s="0" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="O27" s="0" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="P27" s="0" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="Q27" s="0" t="n">
         <v>305</v>
@@ -1381,7 +1388,7 @@
         <v>0.96</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="J28" s="0" t="n">
         <v>0.93</v>
@@ -1396,7 +1403,7 @@
         <v>0.96</v>
       </c>
       <c r="O28" s="0" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="P28" s="0" t="n">
         <v>0.93</v>
@@ -1425,13 +1432,13 @@
         <v>7</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="K29" s="0" t="n">
         <v>1825</v>
@@ -1440,13 +1447,13 @@
         <v>7</v>
       </c>
       <c r="N29" s="0" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="O29" s="0" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="P29" s="0" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="Q29" s="0" t="n">
         <v>1825</v>
@@ -1509,7 +1516,7 @@
         <v>0.62</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="D33" s="0" t="n">
         <v>0.74</v>
@@ -1521,13 +1528,13 @@
         <v>0</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="J33" s="0" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="K33" s="0" t="n">
         <v>109</v>
@@ -1536,13 +1543,13 @@
         <v>0</v>
       </c>
       <c r="N33" s="0" t="n">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="O33" s="0" t="n">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="P33" s="0" t="n">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="Q33" s="0" t="n">
         <v>109</v>
@@ -1571,10 +1578,10 @@
         <v>0.98</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="J34" s="0" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="K34" s="0" t="n">
         <v>500</v>
@@ -1586,10 +1593,10 @@
         <v>0.98</v>
       </c>
       <c r="O34" s="0" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="P34" s="0" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="Q34" s="0" t="n">
         <v>500</v>
@@ -1603,7 +1610,7 @@
         <v>0.8</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>0.83</v>
@@ -1615,13 +1622,13 @@
         <v>7</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="I35" s="0" t="n">
         <v>0.89</v>
       </c>
       <c r="J35" s="0" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="K35" s="0" t="n">
         <v>609</v>
@@ -1630,13 +1637,13 @@
         <v>7</v>
       </c>
       <c r="N35" s="0" t="n">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="O35" s="0" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="P35" s="0" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="Q35" s="0" t="n">
         <v>609</v>
@@ -1660,13 +1667,13 @@
   </sheetPr>
   <dimension ref="A1:W139"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y1" activeCellId="0" sqref="Y:AC"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F87" activeCellId="0" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.04"/>
@@ -1678,26 +1685,32 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="5.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.1"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="26.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="26.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="5.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="8.1"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="29.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="6.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="5.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="8.1"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="24" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="24" min="18" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="26.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="6.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="5.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="8.1"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="26.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="6.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="5.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="8.1"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="36" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>16</v>
@@ -1761,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>402</v>
@@ -1776,13 +1789,13 @@
         <v>0</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0.24</v>
+        <v>0.38</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>0.72</v>
+        <v>0.64</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>0.36</v>
+        <v>0.48</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>402</v>
@@ -1791,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>0.39</v>
+        <v>0.24</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>0.6</v>
+        <v>0.72</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>0.47</v>
+        <v>0.36</v>
       </c>
       <c r="Q3" s="0" t="n">
         <v>402</v>
@@ -1806,13 +1819,13 @@
         <v>0</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
       <c r="U3" s="0" t="n">
-        <v>0.69</v>
+        <v>0.68</v>
       </c>
       <c r="V3" s="0" t="n">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="W3" s="0" t="n">
         <v>402</v>
@@ -1838,13 +1851,13 @@
         <v>1</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>0.74</v>
+        <v>0.84</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>0.81</v>
+        <v>0.84</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>1559</v>
@@ -1853,13 +1866,13 @@
         <v>1</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>0.84</v>
+        <v>0.74</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>0.84</v>
+        <v>0.81</v>
       </c>
       <c r="Q4" s="0" t="n">
         <v>1559</v>
@@ -1868,13 +1881,13 @@
         <v>1</v>
       </c>
       <c r="T4" s="0" t="n">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="U4" s="0" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="V4" s="0" t="n">
-        <v>0.81</v>
+        <v>0.83</v>
       </c>
       <c r="W4" s="0" t="n">
         <v>1559</v>
@@ -1885,13 +1898,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>1872</v>
@@ -1900,13 +1913,13 @@
         <v>2</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>0.76</v>
+        <v>0.81</v>
       </c>
       <c r="K5" s="0" t="n">
         <v>1872</v>
@@ -1915,13 +1928,13 @@
         <v>2</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>0.77</v>
+        <v>0.65</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>0.82</v>
+        <v>0.76</v>
       </c>
       <c r="Q5" s="0" t="n">
         <v>1872</v>
@@ -1933,10 +1946,10 @@
         <v>0.89</v>
       </c>
       <c r="U5" s="0" t="n">
-        <v>0.66</v>
+        <v>0.71</v>
       </c>
       <c r="V5" s="0" t="n">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="W5" s="0" t="n">
         <v>1872</v>
@@ -1962,13 +1975,13 @@
         <v>7</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>0.64</v>
+        <v>0.71</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>3833</v>
@@ -1977,13 +1990,13 @@
         <v>7</v>
       </c>
       <c r="N6" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="O6" s="0" t="n">
         <v>0.7</v>
       </c>
-      <c r="O6" s="0" t="n">
-        <v>0.74</v>
-      </c>
       <c r="P6" s="0" t="n">
-        <v>0.71</v>
+        <v>0.64</v>
       </c>
       <c r="Q6" s="0" t="n">
         <v>3833</v>
@@ -1992,13 +2005,13 @@
         <v>7</v>
       </c>
       <c r="T6" s="0" t="n">
-        <v>0.67</v>
+        <v>0.69</v>
       </c>
       <c r="U6" s="0" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="V6" s="0" t="n">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
       <c r="W6" s="0" t="n">
         <v>3833</v>
@@ -2012,10 +2025,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S9" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2076,10 +2089,10 @@
         <v>0.49</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>0.76</v>
+        <v>0.69</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>285</v>
@@ -2088,13 +2101,13 @@
         <v>0</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0.34</v>
+        <v>0.49</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>0.85</v>
+        <v>0.76</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>0.49</v>
+        <v>0.59</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>285</v>
@@ -2103,13 +2116,13 @@
         <v>0</v>
       </c>
       <c r="N11" s="0" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="P11" s="0" t="n">
         <v>0.49</v>
-      </c>
-      <c r="O11" s="0" t="n">
-        <v>0.69</v>
-      </c>
-      <c r="P11" s="0" t="n">
-        <v>0.58</v>
       </c>
       <c r="Q11" s="0" t="n">
         <v>285</v>
@@ -2118,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="T11" s="0" t="n">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
       <c r="U11" s="0" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="V11" s="0" t="n">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
       <c r="W11" s="0" t="n">
         <v>285</v>
@@ -2197,10 +2210,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>0.86</v>
@@ -2212,13 +2225,13 @@
         <v>2</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>0.67</v>
+        <v>0.78</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>0.79</v>
+        <v>0.86</v>
       </c>
       <c r="K13" s="0" t="n">
         <v>1521</v>
@@ -2227,13 +2240,13 @@
         <v>2</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>0.94</v>
+        <v>0.96</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>0.86</v>
+        <v>0.79</v>
       </c>
       <c r="Q13" s="0" t="n">
         <v>1521</v>
@@ -2242,13 +2255,13 @@
         <v>2</v>
       </c>
       <c r="T13" s="0" t="n">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="U13" s="0" t="n">
-        <v>0.69</v>
+        <v>0.74</v>
       </c>
       <c r="V13" s="0" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="W13" s="0" t="n">
         <v>1521</v>
@@ -2262,7 +2275,7 @@
         <v>0.48</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>0.48</v>
@@ -2274,13 +2287,13 @@
         <v>7</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0.43</v>
+        <v>0.48</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>0.51</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>0.43</v>
+        <v>0.48</v>
       </c>
       <c r="K14" s="0" t="n">
         <v>1806</v>
@@ -2289,13 +2302,13 @@
         <v>7</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>0.48</v>
+        <v>0.43</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>0.48</v>
+        <v>0.43</v>
       </c>
       <c r="Q14" s="0" t="n">
         <v>1806</v>
@@ -2304,13 +2317,13 @@
         <v>7</v>
       </c>
       <c r="T14" s="0" t="n">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="U14" s="0" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="V14" s="0" t="n">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="W14" s="0" t="n">
         <v>1806</v>
@@ -2324,10 +2337,10 @@
         <v>21</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S17" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2385,13 +2398,13 @@
         <v>0</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0.36</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>117</v>
@@ -2400,13 +2413,13 @@
         <v>0</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>0.16</v>
+        <v>0.23</v>
       </c>
       <c r="K19" s="0" t="n">
         <v>117</v>
@@ -2415,13 +2428,13 @@
         <v>0</v>
       </c>
       <c r="N19" s="0" t="n">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="O19" s="0" t="n">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="P19" s="0" t="n">
-        <v>0.25</v>
+        <v>0.16</v>
       </c>
       <c r="Q19" s="0" t="n">
         <v>117</v>
@@ -2430,13 +2443,13 @@
         <v>0</v>
       </c>
       <c r="T19" s="0" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="U19" s="0" t="n">
-        <v>0.45</v>
+        <v>0.43</v>
       </c>
       <c r="V19" s="0" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="W19" s="0" t="n">
         <v>117</v>
@@ -2462,13 +2475,13 @@
         <v>1</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>0.74</v>
+        <v>0.84</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>0.82</v>
+        <v>0.87</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>1559</v>
@@ -2477,13 +2490,13 @@
         <v>1</v>
       </c>
       <c r="N20" s="0" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="O20" s="0" t="n">
-        <v>0.84</v>
+        <v>0.74</v>
       </c>
       <c r="P20" s="0" t="n">
-        <v>0.87</v>
+        <v>0.82</v>
       </c>
       <c r="Q20" s="0" t="n">
         <v>1559</v>
@@ -2495,10 +2508,10 @@
         <v>0.91</v>
       </c>
       <c r="U20" s="0" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="V20" s="0" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="W20" s="0" t="n">
         <v>1559</v>
@@ -2512,10 +2525,10 @@
         <v>0.62</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>351</v>
@@ -2524,13 +2537,13 @@
         <v>2</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>0.69</v>
+        <v>0.62</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>0.58</v>
+        <v>0.62</v>
       </c>
       <c r="J21" s="0" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="K21" s="0" t="n">
         <v>351</v>
@@ -2539,10 +2552,10 @@
         <v>2</v>
       </c>
       <c r="N21" s="0" t="n">
-        <v>0.62</v>
+        <v>0.69</v>
       </c>
       <c r="O21" s="0" t="n">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="P21" s="0" t="n">
         <v>0.63</v>
@@ -2557,10 +2570,10 @@
         <v>0.65</v>
       </c>
       <c r="U21" s="0" t="n">
-        <v>0.52</v>
+        <v>0.57</v>
       </c>
       <c r="V21" s="0" t="n">
-        <v>0.58</v>
+        <v>0.61</v>
       </c>
       <c r="W21" s="0" t="n">
         <v>351</v>
@@ -2574,10 +2587,10 @@
         <v>0.57</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>2027</v>
@@ -2589,10 +2602,10 @@
         <v>0.57</v>
       </c>
       <c r="I22" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J22" s="0" t="n">
         <v>0.57</v>
-      </c>
-      <c r="J22" s="0" t="n">
-        <v>0.53</v>
       </c>
       <c r="K22" s="0" t="n">
         <v>2027</v>
@@ -2604,10 +2617,10 @@
         <v>0.57</v>
       </c>
       <c r="O22" s="0" t="n">
-        <v>0.61</v>
+        <v>0.57</v>
       </c>
       <c r="P22" s="0" t="n">
-        <v>0.58</v>
+        <v>0.53</v>
       </c>
       <c r="Q22" s="0" t="n">
         <v>2027</v>
@@ -2616,13 +2629,13 @@
         <v>7</v>
       </c>
       <c r="T22" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="U22" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="V22" s="0" t="n">
         <v>0.56</v>
-      </c>
-      <c r="U22" s="0" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="V22" s="0" t="n">
-        <v>0.54</v>
       </c>
       <c r="W22" s="0" t="n">
         <v>2027</v>
@@ -2697,10 +2710,10 @@
         <v>0</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>0.56</v>
@@ -2712,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>0.61</v>
+        <v>0.53</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>0.61</v>
+        <v>0.56</v>
       </c>
       <c r="K26" s="0" t="n">
         <v>165</v>
@@ -2727,13 +2740,13 @@
         <v>0</v>
       </c>
       <c r="N26" s="0" t="n">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="O26" s="0" t="n">
-        <v>0.54</v>
+        <v>0.61</v>
       </c>
       <c r="P26" s="0" t="n">
-        <v>0.56</v>
+        <v>0.61</v>
       </c>
       <c r="Q26" s="0" t="n">
         <v>165</v>
@@ -2742,13 +2755,13 @@
         <v>0</v>
       </c>
       <c r="T26" s="0" t="n">
-        <v>0.53</v>
+        <v>0.57</v>
       </c>
       <c r="U26" s="0" t="n">
-        <v>0.51</v>
+        <v>0.55</v>
       </c>
       <c r="V26" s="0" t="n">
-        <v>0.52</v>
+        <v>0.56</v>
       </c>
       <c r="W26" s="0" t="n">
         <v>165</v>
@@ -2762,7 +2775,7 @@
         <v>0.84</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>0.85</v>
@@ -2774,13 +2787,13 @@
         <v>1</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="K27" s="0" t="n">
         <v>501</v>
@@ -2789,13 +2802,13 @@
         <v>1</v>
       </c>
       <c r="N27" s="0" t="n">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="O27" s="0" t="n">
         <v>0.87</v>
       </c>
       <c r="P27" s="0" t="n">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="Q27" s="0" t="n">
         <v>501</v>
@@ -2804,13 +2817,13 @@
         <v>1</v>
       </c>
       <c r="T27" s="0" t="n">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="U27" s="0" t="n">
         <v>0.86</v>
       </c>
       <c r="V27" s="0" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="W27" s="0" t="n">
         <v>501</v>
@@ -2824,10 +2837,10 @@
         <v>0.86</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>612</v>
@@ -2836,13 +2849,13 @@
         <v>2</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="J28" s="0" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="K28" s="0" t="n">
         <v>612</v>
@@ -2851,13 +2864,13 @@
         <v>2</v>
       </c>
       <c r="N28" s="0" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="O28" s="0" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="P28" s="0" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="Q28" s="0" t="n">
         <v>612</v>
@@ -2866,13 +2879,13 @@
         <v>2</v>
       </c>
       <c r="T28" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="U28" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="V28" s="0" t="n">
         <v>0.85</v>
-      </c>
-      <c r="U28" s="0" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="V28" s="0" t="n">
-        <v>0.84</v>
       </c>
       <c r="W28" s="0" t="n">
         <v>612</v>
@@ -2898,13 +2911,13 @@
         <v>7</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="K29" s="0" t="n">
         <v>1278</v>
@@ -2913,13 +2926,13 @@
         <v>7</v>
       </c>
       <c r="N29" s="0" t="n">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="O29" s="0" t="n">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="P29" s="0" t="n">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="Q29" s="0" t="n">
         <v>1278</v>
@@ -2928,13 +2941,13 @@
         <v>7</v>
       </c>
       <c r="T29" s="0" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="U29" s="0" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="V29" s="0" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="W29" s="0" t="n">
         <v>1278</v>
@@ -2942,16 +2955,16 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G32" s="0" t="s">
-        <v>19</v>
-      </c>
       <c r="M32" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S32" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3009,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>0.62</v>
@@ -3024,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>0.73</v>
+        <v>0.78</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>0.73</v>
+        <v>0.62</v>
       </c>
       <c r="J34" s="0" t="n">
-        <v>0.73</v>
+        <v>0.69</v>
       </c>
       <c r="K34" s="0" t="n">
         <v>129</v>
@@ -3039,13 +3052,13 @@
         <v>0</v>
       </c>
       <c r="N34" s="0" t="n">
-        <v>0.77</v>
+        <v>0.73</v>
       </c>
       <c r="O34" s="0" t="n">
-        <v>0.62</v>
+        <v>0.73</v>
       </c>
       <c r="P34" s="0" t="n">
-        <v>0.69</v>
+        <v>0.73</v>
       </c>
       <c r="Q34" s="0" t="n">
         <v>129</v>
@@ -3057,10 +3070,10 @@
         <v>0.72</v>
       </c>
       <c r="U34" s="0" t="n">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="V34" s="0" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="W34" s="0" t="n">
         <v>129</v>
@@ -3148,13 +3161,13 @@
         <v>2</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="J36" s="0" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="K36" s="0" t="n">
         <v>499</v>
@@ -3163,13 +3176,13 @@
         <v>2</v>
       </c>
       <c r="N36" s="0" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="P36" s="0" t="n">
         <v>0.92</v>
-      </c>
-      <c r="O36" s="0" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="P36" s="0" t="n">
-        <v>0.91</v>
       </c>
       <c r="Q36" s="0" t="n">
         <v>499</v>
@@ -3178,13 +3191,13 @@
         <v>2</v>
       </c>
       <c r="T36" s="0" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="U36" s="0" t="n">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="V36" s="0" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="W36" s="0" t="n">
         <v>499</v>
@@ -3195,7 +3208,7 @@
         <v>7</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>0.57</v>
+        <v>0.56</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>0.51</v>
@@ -3210,13 +3223,13 @@
         <v>7</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>0.56</v>
+        <v>0.57</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>0.55</v>
+        <v>0.53</v>
       </c>
       <c r="K37" s="0" t="n">
         <v>628</v>
@@ -3228,10 +3241,10 @@
         <v>0.56</v>
       </c>
       <c r="O37" s="0" t="n">
-        <v>0.51</v>
+        <v>0.54</v>
       </c>
       <c r="P37" s="0" t="n">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="Q37" s="0" t="n">
         <v>628</v>
@@ -3240,13 +3253,13 @@
         <v>7</v>
       </c>
       <c r="T37" s="0" t="n">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
       <c r="U37" s="0" t="n">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="V37" s="0" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="W37" s="0" t="n">
         <v>628</v>
@@ -3254,16 +3267,16 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="G40" s="0" t="s">
-        <v>21</v>
-      </c>
       <c r="M40" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S40" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3321,13 +3334,13 @@
         <v>0</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>36</v>
@@ -3336,10 +3349,10 @@
         <v>0</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="J42" s="0" t="n">
         <v>0.19</v>
@@ -3354,10 +3367,10 @@
         <v>0.18</v>
       </c>
       <c r="O42" s="0" t="n">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="P42" s="0" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="Q42" s="0" t="n">
         <v>36</v>
@@ -3366,13 +3379,13 @@
         <v>0</v>
       </c>
       <c r="T42" s="0" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="U42" s="0" t="n">
         <v>0.28</v>
       </c>
       <c r="V42" s="0" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="W42" s="0" t="n">
         <v>36</v>
@@ -3383,13 +3396,13 @@
         <v>1</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>501</v>
@@ -3398,13 +3411,13 @@
         <v>1</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="J43" s="0" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="K43" s="0" t="n">
         <v>501</v>
@@ -3413,7 +3426,7 @@
         <v>1</v>
       </c>
       <c r="N43" s="0" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="O43" s="0" t="n">
         <v>0.87</v>
@@ -3428,7 +3441,7 @@
         <v>1</v>
       </c>
       <c r="T43" s="0" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="U43" s="0" t="n">
         <v>0.86</v>
@@ -3445,7 +3458,7 @@
         <v>2</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>0.71</v>
@@ -3460,13 +3473,13 @@
         <v>2</v>
       </c>
       <c r="H44" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="J44" s="0" t="n">
         <v>0.68</v>
-      </c>
-      <c r="I44" s="0" t="n">
-        <v>0.81</v>
-      </c>
-      <c r="J44" s="0" t="n">
-        <v>0.74</v>
       </c>
       <c r="K44" s="0" t="n">
         <v>113</v>
@@ -3475,13 +3488,13 @@
         <v>2</v>
       </c>
       <c r="N44" s="0" t="n">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="O44" s="0" t="n">
-        <v>0.71</v>
+        <v>0.81</v>
       </c>
       <c r="P44" s="0" t="n">
-        <v>0.68</v>
+        <v>0.74</v>
       </c>
       <c r="Q44" s="0" t="n">
         <v>113</v>
@@ -3490,13 +3503,13 @@
         <v>2</v>
       </c>
       <c r="T44" s="0" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="U44" s="0" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="V44" s="0" t="n">
-        <v>0.67</v>
+        <v>0.69</v>
       </c>
       <c r="W44" s="0" t="n">
         <v>113</v>
@@ -3507,13 +3520,13 @@
         <v>7</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>650</v>
@@ -3522,13 +3535,13 @@
         <v>7</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>0.59</v>
+        <v>0.57</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="J45" s="0" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="K45" s="0" t="n">
         <v>650</v>
@@ -3537,13 +3550,13 @@
         <v>7</v>
       </c>
       <c r="N45" s="0" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
       <c r="O45" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="P45" s="0" t="n">
         <v>0.61</v>
-      </c>
-      <c r="P45" s="0" t="n">
-        <v>0.59</v>
       </c>
       <c r="Q45" s="0" t="n">
         <v>650</v>
@@ -3552,13 +3565,13 @@
         <v>7</v>
       </c>
       <c r="T45" s="0" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
       <c r="U45" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="V45" s="0" t="n">
         <v>0.61</v>
-      </c>
-      <c r="V45" s="0" t="n">
-        <v>0.59</v>
       </c>
       <c r="W45" s="0" t="n">
         <v>650</v>
@@ -3566,10 +3579,10 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>25</v>
@@ -3633,13 +3646,13 @@
         <v>0</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="C50" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="D50" s="0" t="n">
         <v>0.59</v>
-      </c>
-      <c r="D50" s="0" t="n">
-        <v>0.6</v>
       </c>
       <c r="E50" s="0" t="n">
         <v>402</v>
@@ -3648,13 +3661,13 @@
         <v>0</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>0.55</v>
+        <v>0.59</v>
       </c>
       <c r="J50" s="0" t="n">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="K50" s="0" t="n">
         <v>402</v>
@@ -3663,13 +3676,13 @@
         <v>0</v>
       </c>
       <c r="N50" s="0" t="n">
-        <v>0.57</v>
+        <v>0.55</v>
       </c>
       <c r="O50" s="0" t="n">
-        <v>0.62</v>
+        <v>0.55</v>
       </c>
       <c r="P50" s="0" t="n">
-        <v>0.59</v>
+        <v>0.55</v>
       </c>
       <c r="Q50" s="0" t="n">
         <v>402</v>
@@ -3684,7 +3697,7 @@
         <v>0.64</v>
       </c>
       <c r="V50" s="0" t="n">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="W50" s="0" t="n">
         <v>402</v>
@@ -3698,7 +3711,7 @@
         <v>0.94</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="D51" s="0" t="n">
         <v>0.91</v>
@@ -3713,10 +3726,10 @@
         <v>0.94</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="J51" s="0" t="n">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="K51" s="0" t="n">
         <v>1559</v>
@@ -3728,10 +3741,10 @@
         <v>0.94</v>
       </c>
       <c r="O51" s="0" t="n">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="P51" s="0" t="n">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="Q51" s="0" t="n">
         <v>1559</v>
@@ -3757,13 +3770,13 @@
         <v>2</v>
       </c>
       <c r="B52" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="D52" s="0" t="n">
         <v>0.89</v>
-      </c>
-      <c r="C52" s="0" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="D52" s="0" t="n">
-        <v>0.9</v>
       </c>
       <c r="E52" s="0" t="n">
         <v>1872</v>
@@ -3772,13 +3785,13 @@
         <v>2</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="J52" s="0" t="n">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="K52" s="0" t="n">
         <v>1872</v>
@@ -3787,13 +3800,13 @@
         <v>2</v>
       </c>
       <c r="N52" s="0" t="n">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="O52" s="0" t="n">
         <v>0.91</v>
       </c>
       <c r="P52" s="0" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="Q52" s="0" t="n">
         <v>1872</v>
@@ -3819,7 +3832,7 @@
         <v>7</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>0.81</v>
+        <v>0.8</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>0.8</v>
@@ -3834,13 +3847,13 @@
         <v>7</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>0.78</v>
+        <v>0.81</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
       <c r="J53" s="0" t="n">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
       <c r="K53" s="0" t="n">
         <v>3833</v>
@@ -3849,13 +3862,13 @@
         <v>7</v>
       </c>
       <c r="N53" s="0" t="n">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="O53" s="0" t="n">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="P53" s="0" t="n">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="Q53" s="0" t="n">
         <v>3833</v>
@@ -3884,10 +3897,10 @@
         <v>19</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S56" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3945,10 +3958,10 @@
         <v>0</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>0.68</v>
+        <v>0.73</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>0.67</v>
@@ -3960,13 +3973,13 @@
         <v>0</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>0.61</v>
+        <v>0.67</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>0.69</v>
+        <v>0.68</v>
       </c>
       <c r="J58" s="0" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="K58" s="0" t="n">
         <v>285</v>
@@ -3975,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="N58" s="0" t="n">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="O58" s="0" t="n">
-        <v>0.73</v>
+        <v>0.69</v>
       </c>
       <c r="P58" s="0" t="n">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="Q58" s="0" t="n">
         <v>285</v>
@@ -3990,13 +4003,13 @@
         <v>0</v>
       </c>
       <c r="T58" s="0" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="U58" s="0" t="n">
         <v>0.76</v>
       </c>
       <c r="V58" s="0" t="n">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
       <c r="W58" s="0" t="n">
         <v>285</v>
@@ -4069,10 +4082,10 @@
         <v>2</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>0.93</v>
@@ -4087,10 +4100,10 @@
         <v>0.94</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="J60" s="0" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="K60" s="0" t="n">
         <v>1521</v>
@@ -4099,13 +4112,13 @@
         <v>2</v>
       </c>
       <c r="N60" s="0" t="n">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="O60" s="0" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="P60" s="0" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="Q60" s="0" t="n">
         <v>1521</v>
@@ -4131,13 +4144,13 @@
         <v>7</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>0.54</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="E61" s="0" t="n">
         <v>1806</v>
@@ -4146,13 +4159,13 @@
         <v>7</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="J61" s="0" t="n">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="K61" s="0" t="n">
         <v>1806</v>
@@ -4164,10 +4177,10 @@
         <v>0.52</v>
       </c>
       <c r="O61" s="0" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="P61" s="0" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="Q61" s="0" t="n">
         <v>1806</v>
@@ -4196,10 +4209,10 @@
         <v>21</v>
       </c>
       <c r="M64" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S64" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4257,13 +4270,13 @@
         <v>0</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="C66" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="D66" s="0" t="n">
         <v>0.38</v>
-      </c>
-      <c r="D66" s="0" t="n">
-        <v>0.4</v>
       </c>
       <c r="E66" s="0" t="n">
         <v>117</v>
@@ -4272,13 +4285,13 @@
         <v>0</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>0.32</v>
+        <v>0.41</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>0.23</v>
+        <v>0.38</v>
       </c>
       <c r="J66" s="0" t="n">
-        <v>0.27</v>
+        <v>0.4</v>
       </c>
       <c r="K66" s="0" t="n">
         <v>117</v>
@@ -4287,13 +4300,13 @@
         <v>0</v>
       </c>
       <c r="N66" s="0" t="n">
-        <v>0.4</v>
+        <v>0.32</v>
       </c>
       <c r="O66" s="0" t="n">
-        <v>0.36</v>
+        <v>0.23</v>
       </c>
       <c r="P66" s="0" t="n">
-        <v>0.38</v>
+        <v>0.27</v>
       </c>
       <c r="Q66" s="0" t="n">
         <v>117</v>
@@ -4302,13 +4315,13 @@
         <v>0</v>
       </c>
       <c r="T66" s="0" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="U66" s="0" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="V66" s="0" t="n">
         <v>0.36</v>
-      </c>
-      <c r="U66" s="0" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="V66" s="0" t="n">
-        <v>0.35</v>
       </c>
       <c r="W66" s="0" t="n">
         <v>117</v>
@@ -4322,7 +4335,7 @@
         <v>0.95</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>0.92</v>
@@ -4337,10 +4350,10 @@
         <v>0.95</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="J67" s="0" t="n">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="K67" s="0" t="n">
         <v>1559</v>
@@ -4352,10 +4365,10 @@
         <v>0.95</v>
       </c>
       <c r="O67" s="0" t="n">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="P67" s="0" t="n">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="Q67" s="0" t="n">
         <v>1559</v>
@@ -4381,10 +4394,10 @@
         <v>2</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>0.78</v>
@@ -4396,13 +4409,13 @@
         <v>2</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>0.59</v>
+        <v>0.7</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="J68" s="0" t="n">
-        <v>0.72</v>
+        <v>0.78</v>
       </c>
       <c r="K68" s="0" t="n">
         <v>351</v>
@@ -4411,13 +4424,13 @@
         <v>2</v>
       </c>
       <c r="N68" s="0" t="n">
-        <v>0.68</v>
+        <v>0.59</v>
       </c>
       <c r="O68" s="0" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="P68" s="0" t="n">
-        <v>0.78</v>
+        <v>0.72</v>
       </c>
       <c r="Q68" s="0" t="n">
         <v>351</v>
@@ -4426,13 +4439,13 @@
         <v>2</v>
       </c>
       <c r="T68" s="0" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="U68" s="0" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="V68" s="0" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="W68" s="0" t="n">
         <v>351</v>
@@ -4443,13 +4456,13 @@
         <v>7</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>0.69</v>
+        <v>0.67</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>0.72</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
       <c r="E69" s="0" t="n">
         <v>2027</v>
@@ -4458,13 +4471,13 @@
         <v>7</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>0.62</v>
+        <v>0.69</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>0.66</v>
+        <v>0.72</v>
       </c>
       <c r="J69" s="0" t="n">
-        <v>0.63</v>
+        <v>0.7</v>
       </c>
       <c r="K69" s="0" t="n">
         <v>2027</v>
@@ -4473,13 +4486,13 @@
         <v>7</v>
       </c>
       <c r="N69" s="0" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="O69" s="0" t="n">
-        <v>0.72</v>
+        <v>0.66</v>
       </c>
       <c r="P69" s="0" t="n">
-        <v>0.69</v>
+        <v>0.63</v>
       </c>
       <c r="Q69" s="0" t="n">
         <v>2027</v>
@@ -4488,7 +4501,7 @@
         <v>7</v>
       </c>
       <c r="T69" s="0" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="U69" s="0" t="n">
         <v>0.7</v>
@@ -4569,13 +4582,13 @@
         <v>0</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>0.65</v>
+        <v>0.63</v>
       </c>
       <c r="E73" s="0" t="n">
         <v>165</v>
@@ -4584,13 +4597,13 @@
         <v>0</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>0.74</v>
+        <v>0.67</v>
       </c>
       <c r="I73" s="0" t="n">
-        <v>0.61</v>
+        <v>0.64</v>
       </c>
       <c r="J73" s="0" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="K73" s="0" t="n">
         <v>165</v>
@@ -4599,13 +4612,13 @@
         <v>0</v>
       </c>
       <c r="N73" s="0" t="n">
-        <v>0.63</v>
+        <v>0.74</v>
       </c>
       <c r="O73" s="0" t="n">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="P73" s="0" t="n">
-        <v>0.63</v>
+        <v>0.66</v>
       </c>
       <c r="Q73" s="0" t="n">
         <v>165</v>
@@ -4614,13 +4627,13 @@
         <v>0</v>
       </c>
       <c r="T73" s="0" t="n">
-        <v>0.63</v>
+        <v>0.66</v>
       </c>
       <c r="U73" s="0" t="n">
-        <v>0.59</v>
+        <v>0.62</v>
       </c>
       <c r="V73" s="0" t="n">
-        <v>0.61</v>
+        <v>0.64</v>
       </c>
       <c r="W73" s="0" t="n">
         <v>165</v>
@@ -4634,10 +4647,10 @@
         <v>0.95</v>
       </c>
       <c r="C74" s="0" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D74" s="0" t="n">
         <v>0.91</v>
-      </c>
-      <c r="D74" s="0" t="n">
-        <v>0.93</v>
       </c>
       <c r="E74" s="0" t="n">
         <v>501</v>
@@ -4646,13 +4659,13 @@
         <v>1</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="J74" s="0" t="n">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="K74" s="0" t="n">
         <v>501</v>
@@ -4661,13 +4674,13 @@
         <v>1</v>
       </c>
       <c r="N74" s="0" t="n">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="O74" s="0" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="P74" s="0" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="Q74" s="0" t="n">
         <v>501</v>
@@ -4679,10 +4692,10 @@
         <v>0.95</v>
       </c>
       <c r="U74" s="0" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="V74" s="0" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="W74" s="0" t="n">
         <v>501</v>
@@ -4693,13 +4706,13 @@
         <v>2</v>
       </c>
       <c r="B75" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="D75" s="0" t="n">
         <v>0.9</v>
-      </c>
-      <c r="C75" s="0" t="n">
-        <v>0.94</v>
-      </c>
-      <c r="D75" s="0" t="n">
-        <v>0.92</v>
       </c>
       <c r="E75" s="0" t="n">
         <v>612</v>
@@ -4708,13 +4721,13 @@
         <v>2</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="J75" s="0" t="n">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="K75" s="0" t="n">
         <v>612</v>
@@ -4723,7 +4736,7 @@
         <v>2</v>
       </c>
       <c r="N75" s="0" t="n">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="O75" s="0" t="n">
         <v>0.93</v>
@@ -4738,7 +4751,7 @@
         <v>2</v>
       </c>
       <c r="T75" s="0" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="U75" s="0" t="n">
         <v>0.93</v>
@@ -4755,13 +4768,13 @@
         <v>7</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>0.83</v>
+        <v>0.81</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>0.83</v>
+        <v>0.81</v>
       </c>
       <c r="E76" s="0" t="n">
         <v>1278</v>
@@ -4773,10 +4786,10 @@
         <v>0.84</v>
       </c>
       <c r="I76" s="0" t="n">
-        <v>0.81</v>
+        <v>0.83</v>
       </c>
       <c r="J76" s="0" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="K76" s="0" t="n">
         <v>1278</v>
@@ -4785,13 +4798,13 @@
         <v>7</v>
       </c>
       <c r="N76" s="0" t="n">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="O76" s="0" t="n">
         <v>0.81</v>
       </c>
       <c r="P76" s="0" t="n">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="Q76" s="0" t="n">
         <v>1278</v>
@@ -4800,13 +4813,13 @@
         <v>7</v>
       </c>
       <c r="T76" s="0" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="U76" s="0" t="n">
         <v>0.81</v>
       </c>
-      <c r="U76" s="0" t="n">
-        <v>0.8</v>
-      </c>
       <c r="V76" s="0" t="n">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="W76" s="0" t="n">
         <v>1278</v>
@@ -4814,16 +4827,16 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="G79" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G79" s="0" t="s">
-        <v>19</v>
-      </c>
       <c r="M79" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S79" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4881,13 +4894,13 @@
         <v>0</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
       <c r="E81" s="0" t="n">
         <v>129</v>
@@ -4896,13 +4909,13 @@
         <v>0</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="I81" s="0" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="J81" s="0" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="K81" s="0" t="n">
         <v>129</v>
@@ -4911,13 +4924,13 @@
         <v>0</v>
       </c>
       <c r="N81" s="0" t="n">
-        <v>0.73</v>
+        <v>0.79</v>
       </c>
       <c r="O81" s="0" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="P81" s="0" t="n">
-        <v>0.72</v>
+        <v>0.76</v>
       </c>
       <c r="Q81" s="0" t="n">
         <v>129</v>
@@ -4926,13 +4939,13 @@
         <v>0</v>
       </c>
       <c r="T81" s="0" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="U81" s="0" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="V81" s="0" t="n">
         <v>0.71</v>
-      </c>
-      <c r="U81" s="0" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="V81" s="0" t="n">
-        <v>0.68</v>
       </c>
       <c r="W81" s="0" t="n">
         <v>129</v>
@@ -5008,10 +5021,10 @@
         <v>0.93</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="E83" s="0" t="n">
         <v>499</v>
@@ -5023,7 +5036,7 @@
         <v>0.93</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="J83" s="0" t="n">
         <v>0.94</v>
@@ -5038,10 +5051,10 @@
         <v>0.93</v>
       </c>
       <c r="O83" s="0" t="n">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="P83" s="0" t="n">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="Q83" s="0" t="n">
         <v>499</v>
@@ -5056,7 +5069,7 @@
         <v>0.93</v>
       </c>
       <c r="V83" s="0" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="W83" s="0" t="n">
         <v>499</v>
@@ -5067,13 +5080,13 @@
         <v>7</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>0.56</v>
+        <v>0.55</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>0.56</v>
+        <v>0.55</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>0.56</v>
+        <v>0.55</v>
       </c>
       <c r="E84" s="0" t="n">
         <v>628</v>
@@ -5082,7 +5095,7 @@
         <v>7</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>0.57</v>
+        <v>0.56</v>
       </c>
       <c r="I84" s="0" t="n">
         <v>0.56</v>
@@ -5097,13 +5110,13 @@
         <v>7</v>
       </c>
       <c r="N84" s="0" t="n">
-        <v>0.55</v>
+        <v>0.57</v>
       </c>
       <c r="O84" s="0" t="n">
-        <v>0.55</v>
+        <v>0.56</v>
       </c>
       <c r="P84" s="0" t="n">
-        <v>0.55</v>
+        <v>0.56</v>
       </c>
       <c r="Q84" s="0" t="n">
         <v>628</v>
@@ -5112,13 +5125,13 @@
         <v>7</v>
       </c>
       <c r="T84" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="U84" s="0" t="n">
         <v>0.54</v>
       </c>
-      <c r="U84" s="0" t="n">
-        <v>0.53</v>
-      </c>
       <c r="V84" s="0" t="n">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="W84" s="0" t="n">
         <v>628</v>
@@ -5126,16 +5139,16 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G87" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="G87" s="0" t="s">
-        <v>21</v>
-      </c>
       <c r="M87" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S87" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5193,13 +5206,13 @@
         <v>0</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>0.28</v>
+        <v>0.33</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>0.29</v>
+        <v>0.32</v>
       </c>
       <c r="E89" s="0" t="n">
         <v>36</v>
@@ -5208,13 +5221,13 @@
         <v>0</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
       <c r="I89" s="0" t="n">
-        <v>0.19</v>
+        <v>0.28</v>
       </c>
       <c r="J89" s="0" t="n">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="K89" s="0" t="n">
         <v>36</v>
@@ -5223,13 +5236,13 @@
         <v>0</v>
       </c>
       <c r="N89" s="0" t="n">
-        <v>0.3</v>
+        <v>0.37</v>
       </c>
       <c r="O89" s="0" t="n">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="P89" s="0" t="n">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
       <c r="Q89" s="0" t="n">
         <v>36</v>
@@ -5238,13 +5251,13 @@
         <v>0</v>
       </c>
       <c r="T89" s="0" t="n">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="U89" s="0" t="n">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
       <c r="V89" s="0" t="n">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="W89" s="0" t="n">
         <v>36</v>
@@ -5258,10 +5271,10 @@
         <v>0.95</v>
       </c>
       <c r="C90" s="0" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D90" s="0" t="n">
         <v>0.91</v>
-      </c>
-      <c r="D90" s="0" t="n">
-        <v>0.93</v>
       </c>
       <c r="E90" s="0" t="n">
         <v>501</v>
@@ -5270,13 +5283,13 @@
         <v>1</v>
       </c>
       <c r="H90" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I90" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J90" s="0" t="n">
         <v>0.93</v>
-      </c>
-      <c r="I90" s="0" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J90" s="0" t="n">
-        <v>0.91</v>
       </c>
       <c r="K90" s="0" t="n">
         <v>501</v>
@@ -5285,10 +5298,10 @@
         <v>1</v>
       </c>
       <c r="N90" s="0" t="n">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="O90" s="0" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="P90" s="0" t="n">
         <v>0.91</v>
@@ -5303,7 +5316,7 @@
         <v>0.95</v>
       </c>
       <c r="U90" s="0" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="V90" s="0" t="n">
         <v>0.92</v>
@@ -5317,13 +5330,13 @@
         <v>2</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>0.77</v>
+        <v>0.7</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>0.96</v>
+        <v>0.94</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="E91" s="0" t="n">
         <v>113</v>
@@ -5332,13 +5345,13 @@
         <v>2</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>0.64</v>
+        <v>0.77</v>
       </c>
       <c r="I91" s="0" t="n">
-        <v>0.87</v>
+        <v>0.96</v>
       </c>
       <c r="J91" s="0" t="n">
-        <v>0.73</v>
+        <v>0.85</v>
       </c>
       <c r="K91" s="0" t="n">
         <v>113</v>
@@ -5347,13 +5360,13 @@
         <v>2</v>
       </c>
       <c r="N91" s="0" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="O91" s="0" t="n">
-        <v>0.94</v>
+        <v>0.87</v>
       </c>
       <c r="P91" s="0" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="Q91" s="0" t="n">
         <v>113</v>
@@ -5362,13 +5375,13 @@
         <v>2</v>
       </c>
       <c r="T91" s="0" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="U91" s="0" t="n">
         <v>0.94</v>
       </c>
       <c r="V91" s="0" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="W91" s="0" t="n">
         <v>113</v>
@@ -5379,13 +5392,13 @@
         <v>7</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>0.71</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>0.69</v>
+        <v>0.68</v>
       </c>
       <c r="E92" s="0" t="n">
         <v>650</v>
@@ -5394,13 +5407,13 @@
         <v>7</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>0.64</v>
+        <v>0.68</v>
       </c>
       <c r="I92" s="0" t="n">
-        <v>0.65</v>
+        <v>0.71</v>
       </c>
       <c r="J92" s="0" t="n">
-        <v>0.63</v>
+        <v>0.69</v>
       </c>
       <c r="K92" s="0" t="n">
         <v>650</v>
@@ -5409,13 +5422,13 @@
         <v>7</v>
       </c>
       <c r="N92" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="O92" s="0" t="n">
         <v>0.65</v>
       </c>
-      <c r="O92" s="0" t="n">
-        <v>0.71</v>
-      </c>
       <c r="P92" s="0" t="n">
-        <v>0.68</v>
+        <v>0.63</v>
       </c>
       <c r="Q92" s="0" t="n">
         <v>650</v>
@@ -5424,13 +5437,13 @@
         <v>7</v>
       </c>
       <c r="T92" s="0" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="U92" s="0" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="V92" s="0" t="n">
-        <v>0.69</v>
+        <v>0.7</v>
       </c>
       <c r="W92" s="0" t="n">
         <v>650</v>
@@ -5438,10 +5451,10 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M95" s="1" t="s">
         <v>28</v>
@@ -5505,13 +5518,13 @@
         <v>0</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>0.49</v>
+        <v>0.58</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>0.56</v>
+        <v>0.62</v>
       </c>
       <c r="E97" s="0" t="n">
         <v>402</v>
@@ -5520,13 +5533,13 @@
         <v>0</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>0.53</v>
+        <v>0.49</v>
       </c>
       <c r="I97" s="0" t="n">
-        <v>0.55</v>
+        <v>0.65</v>
       </c>
       <c r="J97" s="0" t="n">
-        <v>0.54</v>
+        <v>0.56</v>
       </c>
       <c r="K97" s="0" t="n">
         <v>402</v>
@@ -5535,13 +5548,13 @@
         <v>0</v>
       </c>
       <c r="N97" s="0" t="n">
-        <v>0.58</v>
+        <v>0.53</v>
       </c>
       <c r="O97" s="0" t="n">
-        <v>0.68</v>
+        <v>0.55</v>
       </c>
       <c r="P97" s="0" t="n">
-        <v>0.62</v>
+        <v>0.54</v>
       </c>
       <c r="Q97" s="0" t="n">
         <v>402</v>
@@ -5550,13 +5563,13 @@
         <v>0</v>
       </c>
       <c r="T97" s="0" t="n">
-        <v>0.58</v>
+        <v>0.57</v>
       </c>
       <c r="U97" s="0" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="V97" s="0" t="n">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="W97" s="0" t="n">
         <v>402</v>
@@ -5567,13 +5580,13 @@
         <v>1</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="E98" s="0" t="n">
         <v>1559</v>
@@ -5582,13 +5595,13 @@
         <v>1</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="J98" s="0" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="K98" s="0" t="n">
         <v>1559</v>
@@ -5600,10 +5613,10 @@
         <v>0.95</v>
       </c>
       <c r="O98" s="0" t="n">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="P98" s="0" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="Q98" s="0" t="n">
         <v>1559</v>
@@ -5629,13 +5642,13 @@
         <v>2</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="E99" s="0" t="n">
         <v>1872</v>
@@ -5644,13 +5657,13 @@
         <v>2</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="I99" s="0" t="n">
-        <v>0.91</v>
+        <v>0.86</v>
       </c>
       <c r="J99" s="0" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="K99" s="0" t="n">
         <v>1872</v>
@@ -5659,13 +5672,13 @@
         <v>2</v>
       </c>
       <c r="N99" s="0" t="n">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="O99" s="0" t="n">
         <v>0.91</v>
       </c>
       <c r="P99" s="0" t="n">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="Q99" s="0" t="n">
         <v>1872</v>
@@ -5691,13 +5704,13 @@
         <v>7</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>0.77</v>
+        <v>0.81</v>
       </c>
       <c r="E100" s="0" t="n">
         <v>3833</v>
@@ -5706,10 +5719,10 @@
         <v>7</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="I100" s="0" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="J100" s="0" t="n">
         <v>0.77</v>
@@ -5721,13 +5734,13 @@
         <v>7</v>
       </c>
       <c r="N100" s="0" t="n">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="O100" s="0" t="n">
-        <v>0.82</v>
+        <v>0.77</v>
       </c>
       <c r="P100" s="0" t="n">
-        <v>0.81</v>
+        <v>0.77</v>
       </c>
       <c r="Q100" s="0" t="n">
         <v>3833</v>
@@ -5739,10 +5752,10 @@
         <v>0.8</v>
       </c>
       <c r="U100" s="0" t="n">
-        <v>0.82</v>
+        <v>0.81</v>
       </c>
       <c r="V100" s="0" t="n">
-        <v>0.81</v>
+        <v>0.8</v>
       </c>
       <c r="W100" s="0" t="n">
         <v>3833</v>
@@ -5756,10 +5769,10 @@
         <v>19</v>
       </c>
       <c r="M103" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S103" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5817,13 +5830,13 @@
         <v>0</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>0.54</v>
+        <v>0.64</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>0.77</v>
+        <v>0.81</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>0.64</v>
+        <v>0.71</v>
       </c>
       <c r="E105" s="0" t="n">
         <v>285</v>
@@ -5832,13 +5845,13 @@
         <v>0</v>
       </c>
       <c r="H105" s="0" t="n">
-        <v>0.57</v>
+        <v>0.54</v>
       </c>
       <c r="I105" s="0" t="n">
-        <v>0.65</v>
+        <v>0.77</v>
       </c>
       <c r="J105" s="0" t="n">
-        <v>0.61</v>
+        <v>0.64</v>
       </c>
       <c r="K105" s="0" t="n">
         <v>285</v>
@@ -5847,13 +5860,13 @@
         <v>0</v>
       </c>
       <c r="N105" s="0" t="n">
-        <v>0.64</v>
+        <v>0.57</v>
       </c>
       <c r="O105" s="0" t="n">
-        <v>0.81</v>
+        <v>0.65</v>
       </c>
       <c r="P105" s="0" t="n">
-        <v>0.71</v>
+        <v>0.61</v>
       </c>
       <c r="Q105" s="0" t="n">
         <v>285</v>
@@ -5862,13 +5875,13 @@
         <v>0</v>
       </c>
       <c r="T105" s="0" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="U105" s="0" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="V105" s="0" t="n">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
       <c r="W105" s="0" t="n">
         <v>285</v>
@@ -5941,13 +5954,13 @@
         <v>2</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="E107" s="0" t="n">
         <v>1521</v>
@@ -5956,13 +5969,13 @@
         <v>2</v>
       </c>
       <c r="H107" s="0" t="n">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="I107" s="0" t="n">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="J107" s="0" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="K107" s="0" t="n">
         <v>1521</v>
@@ -5971,13 +5984,13 @@
         <v>2</v>
       </c>
       <c r="N107" s="0" t="n">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="O107" s="0" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="P107" s="0" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="Q107" s="0" t="n">
         <v>1521</v>
@@ -6003,13 +6016,13 @@
         <v>7</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="C108" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="D108" s="0" t="n">
         <v>0.55</v>
-      </c>
-      <c r="D108" s="0" t="n">
-        <v>0.52</v>
       </c>
       <c r="E108" s="0" t="n">
         <v>1806</v>
@@ -6021,10 +6034,10 @@
         <v>0.5</v>
       </c>
       <c r="I108" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J108" s="0" t="n">
         <v>0.52</v>
-      </c>
-      <c r="J108" s="0" t="n">
-        <v>0.51</v>
       </c>
       <c r="K108" s="0" t="n">
         <v>1806</v>
@@ -6033,13 +6046,13 @@
         <v>7</v>
       </c>
       <c r="N108" s="0" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="O108" s="0" t="n">
-        <v>0.57</v>
+        <v>0.52</v>
       </c>
       <c r="P108" s="0" t="n">
-        <v>0.55</v>
+        <v>0.51</v>
       </c>
       <c r="Q108" s="0" t="n">
         <v>1806</v>
@@ -6068,10 +6081,10 @@
         <v>21</v>
       </c>
       <c r="M111" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S111" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6129,13 +6142,13 @@
         <v>0</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>0.32</v>
+        <v>0.39</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
       <c r="E113" s="0" t="n">
         <v>117</v>
@@ -6144,13 +6157,13 @@
         <v>0</v>
       </c>
       <c r="H113" s="0" t="n">
-        <v>0.37</v>
+        <v>0.32</v>
       </c>
       <c r="I113" s="0" t="n">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="J113" s="0" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="K113" s="0" t="n">
         <v>117</v>
@@ -6159,13 +6172,13 @@
         <v>0</v>
       </c>
       <c r="N113" s="0" t="n">
-        <v>0.39</v>
+        <v>0.37</v>
       </c>
       <c r="O113" s="0" t="n">
-        <v>0.38</v>
+        <v>0.3</v>
       </c>
       <c r="P113" s="0" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="Q113" s="0" t="n">
         <v>117</v>
@@ -6174,13 +6187,13 @@
         <v>0</v>
       </c>
       <c r="T113" s="0" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="U113" s="0" t="n">
-        <v>0.35</v>
+        <v>0.34</v>
       </c>
       <c r="V113" s="0" t="n">
-        <v>0.37</v>
+        <v>0.36</v>
       </c>
       <c r="W113" s="0" t="n">
         <v>117</v>
@@ -6191,13 +6204,13 @@
         <v>1</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="E114" s="0" t="n">
         <v>1559</v>
@@ -6209,10 +6222,10 @@
         <v>0.95</v>
       </c>
       <c r="I114" s="0" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="J114" s="0" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="K114" s="0" t="n">
         <v>1559</v>
@@ -6221,13 +6234,13 @@
         <v>1</v>
       </c>
       <c r="N114" s="0" t="n">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="O114" s="0" t="n">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="P114" s="0" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="Q114" s="0" t="n">
         <v>1559</v>
@@ -6253,13 +6266,13 @@
         <v>2</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>0.58</v>
+        <v>0.66</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>0.83</v>
+        <v>0.94</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>0.68</v>
+        <v>0.77</v>
       </c>
       <c r="E115" s="0" t="n">
         <v>351</v>
@@ -6268,13 +6281,13 @@
         <v>2</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="I115" s="0" t="n">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="J115" s="0" t="n">
-        <v>0.73</v>
+        <v>0.68</v>
       </c>
       <c r="K115" s="0" t="n">
         <v>351</v>
@@ -6283,13 +6296,13 @@
         <v>2</v>
       </c>
       <c r="N115" s="0" t="n">
-        <v>0.66</v>
+        <v>0.6</v>
       </c>
       <c r="O115" s="0" t="n">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="P115" s="0" t="n">
-        <v>0.77</v>
+        <v>0.73</v>
       </c>
       <c r="Q115" s="0" t="n">
         <v>351</v>
@@ -6298,13 +6311,13 @@
         <v>2</v>
       </c>
       <c r="T115" s="0" t="n">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="U115" s="0" t="n">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="V115" s="0" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="W115" s="0" t="n">
         <v>351</v>
@@ -6315,13 +6328,13 @@
         <v>7</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>0.61</v>
+        <v>0.67</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>0.68</v>
+        <v>0.73</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>0.64</v>
+        <v>0.69</v>
       </c>
       <c r="E116" s="0" t="n">
         <v>2027</v>
@@ -6330,13 +6343,13 @@
         <v>7</v>
       </c>
       <c r="H116" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I116" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="J116" s="0" t="n">
         <v>0.64</v>
-      </c>
-      <c r="I116" s="0" t="n">
-        <v>0.69</v>
-      </c>
-      <c r="J116" s="0" t="n">
-        <v>0.65</v>
       </c>
       <c r="K116" s="0" t="n">
         <v>2027</v>
@@ -6345,13 +6358,13 @@
         <v>7</v>
       </c>
       <c r="N116" s="0" t="n">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="O116" s="0" t="n">
-        <v>0.73</v>
+        <v>0.69</v>
       </c>
       <c r="P116" s="0" t="n">
-        <v>0.69</v>
+        <v>0.65</v>
       </c>
       <c r="Q116" s="0" t="n">
         <v>2027</v>
@@ -6441,13 +6454,13 @@
         <v>0</v>
       </c>
       <c r="B120" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="C120" s="0" t="n">
         <v>0.67</v>
       </c>
-      <c r="C120" s="0" t="n">
-        <v>0.69</v>
-      </c>
       <c r="D120" s="0" t="n">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="E120" s="0" t="n">
         <v>165</v>
@@ -6456,13 +6469,13 @@
         <v>0</v>
       </c>
       <c r="H120" s="0" t="n">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="I120" s="0" t="n">
-        <v>0.6</v>
+        <v>0.69</v>
       </c>
       <c r="J120" s="0" t="n">
-        <v>0.63</v>
+        <v>0.68</v>
       </c>
       <c r="K120" s="0" t="n">
         <v>165</v>
@@ -6471,13 +6484,13 @@
         <v>0</v>
       </c>
       <c r="N120" s="0" t="n">
-        <v>0.62</v>
+        <v>0.66</v>
       </c>
       <c r="O120" s="0" t="n">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="P120" s="0" t="n">
-        <v>0.65</v>
+        <v>0.63</v>
       </c>
       <c r="Q120" s="0" t="n">
         <v>165</v>
@@ -6492,7 +6505,7 @@
         <v>0.6</v>
       </c>
       <c r="V120" s="0" t="n">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="W120" s="0" t="n">
         <v>165</v>
@@ -6506,7 +6519,7 @@
         <v>0.95</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="D121" s="0" t="n">
         <v>0.91</v>
@@ -6521,10 +6534,10 @@
         <v>0.95</v>
       </c>
       <c r="I121" s="0" t="n">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="J121" s="0" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="K121" s="0" t="n">
         <v>501</v>
@@ -6536,10 +6549,10 @@
         <v>0.95</v>
       </c>
       <c r="O121" s="0" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="P121" s="0" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="Q121" s="0" t="n">
         <v>501</v>
@@ -6565,13 +6578,13 @@
         <v>2</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="E122" s="0" t="n">
         <v>612</v>
@@ -6580,13 +6593,13 @@
         <v>2</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="I122" s="0" t="n">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="J122" s="0" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="K122" s="0" t="n">
         <v>612</v>
@@ -6595,10 +6608,10 @@
         <v>2</v>
       </c>
       <c r="N122" s="0" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="O122" s="0" t="n">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="P122" s="0" t="n">
         <v>0.91</v>
@@ -6627,13 +6640,13 @@
         <v>7</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="C123" s="0" t="n">
         <v>0.83</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="E123" s="0" t="n">
         <v>1278</v>
@@ -6645,10 +6658,10 @@
         <v>0.83</v>
       </c>
       <c r="I123" s="0" t="n">
-        <v>0.81</v>
+        <v>0.83</v>
       </c>
       <c r="J123" s="0" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="K123" s="0" t="n">
         <v>1278</v>
@@ -6657,10 +6670,10 @@
         <v>7</v>
       </c>
       <c r="N123" s="0" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="O123" s="0" t="n">
-        <v>0.83</v>
+        <v>0.81</v>
       </c>
       <c r="P123" s="0" t="n">
         <v>0.82</v>
@@ -6672,7 +6685,7 @@
         <v>7</v>
       </c>
       <c r="T123" s="0" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="U123" s="0" t="n">
         <v>0.81</v>
@@ -6686,16 +6699,16 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M126" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S126" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6756,10 +6769,10 @@
         <v>0.72</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
       <c r="E128" s="0" t="n">
         <v>129</v>
@@ -6768,10 +6781,10 @@
         <v>0</v>
       </c>
       <c r="H128" s="0" t="n">
-        <v>0.83</v>
+        <v>0.72</v>
       </c>
       <c r="I128" s="0" t="n">
-        <v>0.71</v>
+        <v>0.79</v>
       </c>
       <c r="J128" s="0" t="n">
         <v>0.76</v>
@@ -6783,13 +6796,13 @@
         <v>0</v>
       </c>
       <c r="N128" s="0" t="n">
-        <v>0.72</v>
+        <v>0.83</v>
       </c>
       <c r="O128" s="0" t="n">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="P128" s="0" t="n">
-        <v>0.73</v>
+        <v>0.76</v>
       </c>
       <c r="Q128" s="0" t="n">
         <v>129</v>
@@ -6798,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="T128" s="0" t="n">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="U128" s="0" t="n">
         <v>0.66</v>
@@ -6877,7 +6890,7 @@
         <v>2</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="C130" s="0" t="n">
         <v>0.92</v>
@@ -6892,13 +6905,13 @@
         <v>2</v>
       </c>
       <c r="H130" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I130" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="J130" s="0" t="n">
         <v>0.93</v>
-      </c>
-      <c r="I130" s="0" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="J130" s="0" t="n">
-        <v>0.94</v>
       </c>
       <c r="K130" s="0" t="n">
         <v>499</v>
@@ -6907,13 +6920,13 @@
         <v>2</v>
       </c>
       <c r="N130" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="O130" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="P130" s="0" t="n">
         <v>0.94</v>
-      </c>
-      <c r="O130" s="0" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="P130" s="0" t="n">
-        <v>0.93</v>
       </c>
       <c r="Q130" s="0" t="n">
         <v>499</v>
@@ -6925,10 +6938,10 @@
         <v>0.92</v>
       </c>
       <c r="U130" s="0" t="n">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="V130" s="0" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="W130" s="0" t="n">
         <v>499</v>
@@ -6939,10 +6952,10 @@
         <v>7</v>
       </c>
       <c r="B131" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="C131" s="0" t="n">
         <v>0.56</v>
-      </c>
-      <c r="C131" s="0" t="n">
-        <v>0.57</v>
       </c>
       <c r="D131" s="0" t="n">
         <v>0.56</v>
@@ -6954,13 +6967,13 @@
         <v>7</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>0.58</v>
+        <v>0.56</v>
       </c>
       <c r="I131" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="J131" s="0" t="n">
         <v>0.56</v>
-      </c>
-      <c r="J131" s="0" t="n">
-        <v>0.57</v>
       </c>
       <c r="K131" s="0" t="n">
         <v>628</v>
@@ -6969,13 +6982,13 @@
         <v>7</v>
       </c>
       <c r="N131" s="0" t="n">
-        <v>0.55</v>
+        <v>0.58</v>
       </c>
       <c r="O131" s="0" t="n">
         <v>0.56</v>
       </c>
       <c r="P131" s="0" t="n">
-        <v>0.56</v>
+        <v>0.57</v>
       </c>
       <c r="Q131" s="0" t="n">
         <v>628</v>
@@ -6998,16 +7011,16 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G134" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M134" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S134" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7065,13 +7078,13 @@
         <v>0</v>
       </c>
       <c r="B136" s="0" t="n">
-        <v>0.4</v>
+        <v>0.32</v>
       </c>
       <c r="C136" s="0" t="n">
-        <v>0.33</v>
+        <v>0.39</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="E136" s="0" t="n">
         <v>36</v>
@@ -7080,13 +7093,13 @@
         <v>0</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I136" s="0" t="n">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="J136" s="0" t="n">
-        <v>0.21</v>
+        <v>0.36</v>
       </c>
       <c r="K136" s="0" t="n">
         <v>36</v>
@@ -7095,13 +7108,13 @@
         <v>0</v>
       </c>
       <c r="N136" s="0" t="n">
-        <v>0.32</v>
+        <v>0.2</v>
       </c>
       <c r="O136" s="0" t="n">
-        <v>0.39</v>
+        <v>0.22</v>
       </c>
       <c r="P136" s="0" t="n">
-        <v>0.35</v>
+        <v>0.21</v>
       </c>
       <c r="Q136" s="0" t="n">
         <v>36</v>
@@ -7130,10 +7143,10 @@
         <v>0.96</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="E137" s="0" t="n">
         <v>501</v>
@@ -7142,13 +7155,13 @@
         <v>1</v>
       </c>
       <c r="H137" s="0" t="n">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="I137" s="0" t="n">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="J137" s="0" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="K137" s="0" t="n">
         <v>501</v>
@@ -7157,10 +7170,10 @@
         <v>1</v>
       </c>
       <c r="N137" s="0" t="n">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="O137" s="0" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="P137" s="0" t="n">
         <v>0.92</v>
@@ -7189,13 +7202,13 @@
         <v>2</v>
       </c>
       <c r="B138" s="0" t="n">
-        <v>0.65</v>
+        <v>0.73</v>
       </c>
       <c r="C138" s="0" t="n">
         <v>0.96</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="E138" s="0" t="n">
         <v>113</v>
@@ -7204,13 +7217,13 @@
         <v>2</v>
       </c>
       <c r="H138" s="0" t="n">
-        <v>0.73</v>
+        <v>0.65</v>
       </c>
       <c r="I138" s="0" t="n">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="J138" s="0" t="n">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="K138" s="0" t="n">
         <v>113</v>
@@ -7222,10 +7235,10 @@
         <v>0.73</v>
       </c>
       <c r="O138" s="0" t="n">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="P138" s="0" t="n">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="Q138" s="0" t="n">
         <v>113</v>
@@ -7254,10 +7267,10 @@
         <v>0.67</v>
       </c>
       <c r="C139" s="0" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="E139" s="0" t="n">
         <v>650</v>
@@ -7266,13 +7279,13 @@
         <v>7</v>
       </c>
       <c r="H139" s="0" t="n">
-        <v>0.62</v>
+        <v>0.67</v>
       </c>
       <c r="I139" s="0" t="n">
-        <v>0.67</v>
+        <v>0.72</v>
       </c>
       <c r="J139" s="0" t="n">
-        <v>0.64</v>
+        <v>0.68</v>
       </c>
       <c r="K139" s="0" t="n">
         <v>650</v>
@@ -7281,13 +7294,13 @@
         <v>7</v>
       </c>
       <c r="N139" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="O139" s="0" t="n">
         <v>0.67</v>
       </c>
-      <c r="O139" s="0" t="n">
-        <v>0.74</v>
-      </c>
       <c r="P139" s="0" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="Q139" s="0" t="n">
         <v>650</v>
@@ -7327,7 +7340,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="1" sqref="Y:AC A14"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/output/analysis/dataset=td,c,tdc-b/scaling_minmax.xlsx
+++ b/output/analysis/dataset=td,c,tdc-b/scaling_minmax.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data=c" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="33">
   <si>
     <t xml:space="preserve">feature=tdf, sf=none</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t xml:space="preserve">feature=td, sf=kb (250)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feature=cbf, sf=kb (500)</t>
   </si>
 </sst>
 </file>
@@ -489,7 +492,7 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P33" activeCellId="0" sqref="P33"/>
+      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -578,13 +581,13 @@
         <v>0</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>0.82</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="K3" s="0" t="n">
         <v>305</v>
@@ -628,7 +631,7 @@
         <v>0.95</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0.82</v>
@@ -672,7 +675,7 @@
         <v>7</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>0.77</v>
@@ -768,13 +771,13 @@
         <v>0</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
       <c r="K9" s="0" t="n">
         <v>109</v>
@@ -818,10 +821,10 @@
         <v>0.95</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="K10" s="0" t="n">
         <v>500</v>
@@ -862,13 +865,13 @@
         <v>7</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>0.81</v>
+        <v>0.8</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>609</v>
@@ -958,13 +961,13 @@
         <v>0</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>0.84</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>305</v>
@@ -1667,7 +1670,7 @@
   </sheetPr>
   <dimension ref="A1:W139"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F87" activeCellId="0" sqref="F87"/>
     </sheetView>
   </sheetViews>
@@ -7337,10 +7340,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7357,6 +7360,9 @@
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
@@ -7371,6 +7377,18 @@
       <c r="E2" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="H2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
@@ -7388,6 +7406,21 @@
       <c r="E3" s="0" t="n">
         <v>1069</v>
       </c>
+      <c r="G3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>1069</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -7405,6 +7438,21 @@
       <c r="E4" s="0" t="n">
         <v>14396</v>
       </c>
+      <c r="G4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>14396</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -7422,6 +7470,21 @@
       <c r="E5" s="0" t="n">
         <v>3122</v>
       </c>
+      <c r="G5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>3122</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -7437,6 +7500,21 @@
         <v>0.59</v>
       </c>
       <c r="E6" s="0" t="n">
+        <v>18587</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <v>18587</v>
       </c>
     </row>
@@ -7444,6 +7522,9 @@
       <c r="A8" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="G8" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
@@ -7458,6 +7539,18 @@
       <c r="E9" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="H9" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
@@ -7475,6 +7568,21 @@
       <c r="E10" s="0" t="n">
         <v>361</v>
       </c>
+      <c r="G10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>361</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
@@ -7492,6 +7600,21 @@
       <c r="E11" s="0" t="n">
         <v>4794</v>
       </c>
+      <c r="G11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>4794</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
@@ -7509,6 +7632,21 @@
       <c r="E12" s="0" t="n">
         <v>1041</v>
       </c>
+      <c r="G12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>1041</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -7524,6 +7662,21 @@
         <v>0.62</v>
       </c>
       <c r="E13" s="0" t="n">
+        <v>6196</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="K13" s="0" t="n">
         <v>6196</v>
       </c>
     </row>
@@ -7531,6 +7684,9 @@
       <c r="A25" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="G25" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
@@ -7545,6 +7701,18 @@
       <c r="E26" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="H26" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
@@ -7562,6 +7730,21 @@
       <c r="E27" s="0" t="n">
         <v>1069</v>
       </c>
+      <c r="G27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>1069</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
@@ -7579,6 +7762,21 @@
       <c r="E28" s="0" t="n">
         <v>14396</v>
       </c>
+      <c r="G28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>14396</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
@@ -7596,6 +7794,21 @@
       <c r="E29" s="0" t="n">
         <v>3122</v>
       </c>
+      <c r="G29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>3122</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
@@ -7611,6 +7824,21 @@
         <v>0.75</v>
       </c>
       <c r="E30" s="0" t="n">
+        <v>18587</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="K30" s="0" t="n">
         <v>18587</v>
       </c>
     </row>
@@ -7618,6 +7846,9 @@
       <c r="A32" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="G32" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
@@ -7632,6 +7863,18 @@
       <c r="E33" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="H33" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
@@ -7649,6 +7892,21 @@
       <c r="E34" s="0" t="n">
         <v>361</v>
       </c>
+      <c r="G34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>361</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
@@ -7666,6 +7924,21 @@
       <c r="E35" s="0" t="n">
         <v>4794</v>
       </c>
+      <c r="G35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>4794</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
@@ -7683,6 +7956,21 @@
       <c r="E36" s="0" t="n">
         <v>1041</v>
       </c>
+      <c r="G36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>1041</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
@@ -7698,6 +7986,21 @@
         <v>0.73</v>
       </c>
       <c r="E37" s="0" t="n">
+        <v>6196</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="K37" s="0" t="n">
         <v>6196</v>
       </c>
     </row>

--- a/output/analysis/dataset=td,c,tdc-b/scaling_minmax.xlsx
+++ b/output/analysis/dataset=td,c,tdc-b/scaling_minmax.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="data=c" sheetId="1" state="visible" r:id="rId2"/>
@@ -130,7 +130,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -229,6 +229,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF800000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -387,12 +394,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -491,8 +502,8 @@
   </sheetPr>
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G26" activeCellId="0" sqref="G26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -904,16 +915,17 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="0" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H14" s="0" t="s">
@@ -942,19 +954,19 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" s="0" t="n">
+      <c r="A15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="n">
         <v>0.57</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="2" t="n">
         <v>0.81</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="2" t="n">
         <v>0.67</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="2" t="n">
         <v>305</v>
       </c>
       <c r="G15" s="0" t="n">
@@ -989,19 +1001,19 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B16" s="0" t="n">
+      <c r="A16" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2" t="n">
         <v>0.96</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="2" t="n">
         <v>0.88</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="2" t="n">
         <v>0.92</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="2" t="n">
         <v>1520</v>
       </c>
       <c r="G16" s="0" t="n">
@@ -1036,19 +1048,19 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="0" t="n">
+      <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="2" t="n">
         <v>0.77</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="2" t="n">
         <v>0.84</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="2" t="n">
         <v>0.79</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="2" t="n">
         <v>1825</v>
       </c>
       <c r="G17" s="0" t="s">
@@ -1670,8 +1682,8 @@
   </sheetPr>
   <dimension ref="A1:W139"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F87" activeCellId="0" sqref="F87"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M127" activeCellId="1" sqref="B15:E17 M127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2956,627 +2968,629 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+    <row r="32" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G32" s="0" t="s">
+      <c r="G32" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M32" s="0" t="s">
+      <c r="M32" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S32" s="0" t="s">
+      <c r="S32" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="J33" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="N33" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="O33" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="P33" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="T33" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="U33" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="V33" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="W33" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B34" s="0" t="n">
+    <row r="33" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="V33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W33" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B34" s="2" t="n">
         <v>0.77</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34" s="2" t="n">
         <v>0.62</v>
       </c>
-      <c r="D34" s="0" t="n">
+      <c r="D34" s="2" t="n">
         <v>0.69</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34" s="2" t="n">
         <v>129</v>
       </c>
-      <c r="G34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="0" t="n">
+      <c r="G34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2" t="n">
         <v>0.78</v>
       </c>
-      <c r="I34" s="0" t="n">
+      <c r="I34" s="2" t="n">
         <v>0.62</v>
       </c>
-      <c r="J34" s="0" t="n">
+      <c r="J34" s="2" t="n">
         <v>0.69</v>
       </c>
-      <c r="K34" s="0" t="n">
+      <c r="K34" s="2" t="n">
         <v>129</v>
       </c>
-      <c r="M34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="0" t="n">
+      <c r="M34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" s="2" t="n">
         <v>0.73</v>
       </c>
-      <c r="O34" s="0" t="n">
+      <c r="O34" s="2" t="n">
         <v>0.73</v>
       </c>
-      <c r="P34" s="0" t="n">
+      <c r="P34" s="2" t="n">
         <v>0.73</v>
       </c>
-      <c r="Q34" s="0" t="n">
+      <c r="Q34" s="2" t="n">
         <v>129</v>
       </c>
-      <c r="S34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" s="0" t="n">
+      <c r="S34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" s="2" t="n">
         <v>0.72</v>
       </c>
-      <c r="U34" s="0" t="n">
+      <c r="U34" s="2" t="n">
         <v>0.63</v>
       </c>
-      <c r="V34" s="0" t="n">
+      <c r="V34" s="2" t="n">
         <v>0.67</v>
       </c>
-      <c r="W34" s="0" t="n">
+      <c r="W34" s="2" t="n">
         <v>129</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B36" s="0" t="n">
+    <row r="35" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B36" s="2" t="n">
         <v>0.92</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36" s="2" t="n">
         <v>0.9</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36" s="2" t="n">
         <v>0.91</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36" s="2" t="n">
         <v>499</v>
       </c>
-      <c r="G36" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H36" s="0" t="n">
+      <c r="G36" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H36" s="2" t="n">
         <v>0.92</v>
       </c>
-      <c r="I36" s="0" t="n">
+      <c r="I36" s="2" t="n">
         <v>0.9</v>
       </c>
-      <c r="J36" s="0" t="n">
+      <c r="J36" s="2" t="n">
         <v>0.91</v>
       </c>
-      <c r="K36" s="0" t="n">
+      <c r="K36" s="2" t="n">
         <v>499</v>
       </c>
-      <c r="M36" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N36" s="0" t="n">
+      <c r="M36" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" s="2" t="n">
         <v>0.94</v>
       </c>
-      <c r="O36" s="0" t="n">
+      <c r="O36" s="2" t="n">
         <v>0.89</v>
       </c>
-      <c r="P36" s="0" t="n">
+      <c r="P36" s="2" t="n">
         <v>0.92</v>
       </c>
-      <c r="Q36" s="0" t="n">
+      <c r="Q36" s="2" t="n">
         <v>499</v>
       </c>
-      <c r="S36" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="T36" s="0" t="n">
+      <c r="S36" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="T36" s="2" t="n">
         <v>0.92</v>
       </c>
-      <c r="U36" s="0" t="n">
+      <c r="U36" s="2" t="n">
         <v>0.87</v>
       </c>
-      <c r="V36" s="0" t="n">
+      <c r="V36" s="2" t="n">
         <v>0.89</v>
       </c>
-      <c r="W36" s="0" t="n">
+      <c r="W36" s="2" t="n">
         <v>499</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="0" t="n">
+    <row r="37" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="2" t="n">
         <v>0.56</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37" s="2" t="n">
         <v>0.51</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37" s="2" t="n">
         <v>0.53</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37" s="2" t="n">
         <v>628</v>
       </c>
-      <c r="G37" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="H37" s="0" t="n">
+      <c r="G37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="2" t="n">
         <v>0.57</v>
       </c>
-      <c r="I37" s="0" t="n">
+      <c r="I37" s="2" t="n">
         <v>0.51</v>
       </c>
-      <c r="J37" s="0" t="n">
+      <c r="J37" s="2" t="n">
         <v>0.53</v>
       </c>
-      <c r="K37" s="0" t="n">
+      <c r="K37" s="2" t="n">
         <v>628</v>
       </c>
-      <c r="M37" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="N37" s="0" t="n">
+      <c r="M37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N37" s="2" t="n">
         <v>0.56</v>
       </c>
-      <c r="O37" s="0" t="n">
+      <c r="O37" s="2" t="n">
         <v>0.54</v>
       </c>
-      <c r="P37" s="0" t="n">
+      <c r="P37" s="2" t="n">
         <v>0.55</v>
       </c>
-      <c r="Q37" s="0" t="n">
+      <c r="Q37" s="2" t="n">
         <v>628</v>
       </c>
-      <c r="S37" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="T37" s="0" t="n">
+      <c r="S37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T37" s="2" t="n">
         <v>0.55</v>
       </c>
-      <c r="U37" s="0" t="n">
+      <c r="U37" s="2" t="n">
         <v>0.5</v>
       </c>
-      <c r="V37" s="0" t="n">
+      <c r="V37" s="2" t="n">
         <v>0.52</v>
       </c>
-      <c r="W37" s="0" t="n">
+      <c r="W37" s="2" t="n">
         <v>628</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+    <row r="38" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G40" s="0" t="s">
+      <c r="G40" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M40" s="0" t="s">
+      <c r="M40" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S40" s="0" t="s">
+      <c r="S40" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H41" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="J41" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="N41" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="O41" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="P41" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="T41" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="U41" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="V41" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="W41" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B42" s="0" t="n">
+    <row r="41" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="V41" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W41" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B42" s="2" t="n">
         <v>0.18</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42" s="2" t="n">
         <v>0.25</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="D42" s="2" t="n">
         <v>0.21</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="E42" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="G42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="0" t="n">
+      <c r="G42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2" t="n">
         <v>0.17</v>
       </c>
-      <c r="I42" s="0" t="n">
+      <c r="I42" s="2" t="n">
         <v>0.22</v>
       </c>
-      <c r="J42" s="0" t="n">
+      <c r="J42" s="2" t="n">
         <v>0.19</v>
       </c>
-      <c r="K42" s="0" t="n">
+      <c r="K42" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="M42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" s="0" t="n">
+      <c r="M42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" s="2" t="n">
         <v>0.18</v>
       </c>
-      <c r="O42" s="0" t="n">
+      <c r="O42" s="2" t="n">
         <v>0.19</v>
       </c>
-      <c r="P42" s="0" t="n">
+      <c r="P42" s="2" t="n">
         <v>0.19</v>
       </c>
-      <c r="Q42" s="0" t="n">
+      <c r="Q42" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="S42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" s="0" t="n">
+      <c r="S42" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" s="2" t="n">
         <v>0.2</v>
       </c>
-      <c r="U42" s="0" t="n">
+      <c r="U42" s="2" t="n">
         <v>0.28</v>
       </c>
-      <c r="V42" s="0" t="n">
+      <c r="V42" s="2" t="n">
         <v>0.24</v>
       </c>
-      <c r="W42" s="0" t="n">
+      <c r="W42" s="2" t="n">
         <v>36</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B43" s="0" t="n">
+    <row r="43" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" s="2" t="n">
         <v>0.91</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43" s="2" t="n">
         <v>0.87</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43" s="2" t="n">
         <v>0.89</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E43" s="2" t="n">
         <v>501</v>
       </c>
-      <c r="G43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H43" s="0" t="n">
+      <c r="G43" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2" t="n">
         <v>0.9</v>
       </c>
-      <c r="I43" s="0" t="n">
+      <c r="I43" s="2" t="n">
         <v>0.86</v>
       </c>
-      <c r="J43" s="0" t="n">
+      <c r="J43" s="2" t="n">
         <v>0.88</v>
       </c>
-      <c r="K43" s="0" t="n">
+      <c r="K43" s="2" t="n">
         <v>501</v>
       </c>
-      <c r="M43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" s="0" t="n">
+      <c r="M43" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" s="2" t="n">
         <v>0.92</v>
       </c>
-      <c r="O43" s="0" t="n">
+      <c r="O43" s="2" t="n">
         <v>0.87</v>
       </c>
-      <c r="P43" s="0" t="n">
+      <c r="P43" s="2" t="n">
         <v>0.89</v>
       </c>
-      <c r="Q43" s="0" t="n">
+      <c r="Q43" s="2" t="n">
         <v>501</v>
       </c>
-      <c r="S43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T43" s="0" t="n">
+      <c r="S43" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" s="2" t="n">
         <v>0.92</v>
       </c>
-      <c r="U43" s="0" t="n">
+      <c r="U43" s="2" t="n">
         <v>0.86</v>
       </c>
-      <c r="V43" s="0" t="n">
+      <c r="V43" s="2" t="n">
         <v>0.89</v>
       </c>
-      <c r="W43" s="0" t="n">
+      <c r="W43" s="2" t="n">
         <v>501</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B44" s="0" t="n">
+    <row r="44" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B44" s="2" t="n">
         <v>0.66</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44" s="2" t="n">
         <v>0.71</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44" s="2" t="n">
         <v>0.68</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44" s="2" t="n">
         <v>113</v>
       </c>
-      <c r="G44" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H44" s="0" t="n">
+      <c r="G44" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H44" s="2" t="n">
         <v>0.65</v>
       </c>
-      <c r="I44" s="0" t="n">
+      <c r="I44" s="2" t="n">
         <v>0.71</v>
       </c>
-      <c r="J44" s="0" t="n">
+      <c r="J44" s="2" t="n">
         <v>0.68</v>
       </c>
-      <c r="K44" s="0" t="n">
+      <c r="K44" s="2" t="n">
         <v>113</v>
       </c>
-      <c r="M44" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N44" s="0" t="n">
+      <c r="M44" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" s="2" t="n">
         <v>0.68</v>
       </c>
-      <c r="O44" s="0" t="n">
+      <c r="O44" s="2" t="n">
         <v>0.81</v>
       </c>
-      <c r="P44" s="0" t="n">
+      <c r="P44" s="2" t="n">
         <v>0.74</v>
       </c>
-      <c r="Q44" s="0" t="n">
+      <c r="Q44" s="2" t="n">
         <v>113</v>
       </c>
-      <c r="S44" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="T44" s="0" t="n">
+      <c r="S44" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="T44" s="2" t="n">
         <v>0.64</v>
       </c>
-      <c r="U44" s="0" t="n">
+      <c r="U44" s="2" t="n">
         <v>0.75</v>
       </c>
-      <c r="V44" s="0" t="n">
+      <c r="V44" s="2" t="n">
         <v>0.69</v>
       </c>
-      <c r="W44" s="0" t="n">
+      <c r="W44" s="2" t="n">
         <v>113</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" s="0" t="n">
+    <row r="45" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="2" t="n">
         <v>0.58</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45" s="2" t="n">
         <v>0.61</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D45" s="2" t="n">
         <v>0.59</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E45" s="2" t="n">
         <v>650</v>
       </c>
-      <c r="G45" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="H45" s="0" t="n">
+      <c r="G45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="2" t="n">
         <v>0.57</v>
       </c>
-      <c r="I45" s="0" t="n">
+      <c r="I45" s="2" t="n">
         <v>0.6</v>
       </c>
-      <c r="J45" s="0" t="n">
+      <c r="J45" s="2" t="n">
         <v>0.58</v>
       </c>
-      <c r="K45" s="0" t="n">
+      <c r="K45" s="2" t="n">
         <v>650</v>
       </c>
-      <c r="M45" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="N45" s="0" t="n">
+      <c r="M45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N45" s="2" t="n">
         <v>0.59</v>
       </c>
-      <c r="O45" s="0" t="n">
+      <c r="O45" s="2" t="n">
         <v>0.63</v>
       </c>
-      <c r="P45" s="0" t="n">
+      <c r="P45" s="2" t="n">
         <v>0.61</v>
       </c>
-      <c r="Q45" s="0" t="n">
+      <c r="Q45" s="2" t="n">
         <v>650</v>
       </c>
-      <c r="S45" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="T45" s="0" t="n">
+      <c r="S45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T45" s="2" t="n">
         <v>0.59</v>
       </c>
-      <c r="U45" s="0" t="n">
+      <c r="U45" s="2" t="n">
         <v>0.63</v>
       </c>
-      <c r="V45" s="0" t="n">
+      <c r="V45" s="2" t="n">
         <v>0.61</v>
       </c>
-      <c r="W45" s="0" t="n">
+      <c r="W45" s="2" t="n">
         <v>650</v>
       </c>
     </row>
@@ -4842,613 +4856,615 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C80" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D80" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E80" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H80" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="J80" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="K80" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="N80" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="O80" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="P80" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q80" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="T80" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="U80" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="V80" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="W80" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B81" s="0" t="n">
+    <row r="80" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="V80" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W80" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B81" s="2" t="n">
         <v>0.73</v>
       </c>
-      <c r="C81" s="0" t="n">
+      <c r="C81" s="2" t="n">
         <v>0.71</v>
       </c>
-      <c r="D81" s="0" t="n">
+      <c r="D81" s="2" t="n">
         <v>0.72</v>
       </c>
-      <c r="E81" s="0" t="n">
+      <c r="E81" s="2" t="n">
         <v>129</v>
       </c>
-      <c r="G81" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H81" s="0" t="n">
+      <c r="G81" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" s="2" t="n">
         <v>0.76</v>
       </c>
-      <c r="I81" s="0" t="n">
+      <c r="I81" s="2" t="n">
         <v>0.74</v>
       </c>
-      <c r="J81" s="0" t="n">
+      <c r="J81" s="2" t="n">
         <v>0.75</v>
       </c>
-      <c r="K81" s="0" t="n">
+      <c r="K81" s="2" t="n">
         <v>129</v>
       </c>
-      <c r="M81" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N81" s="0" t="n">
+      <c r="M81" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" s="2" t="n">
         <v>0.79</v>
       </c>
-      <c r="O81" s="0" t="n">
+      <c r="O81" s="2" t="n">
         <v>0.72</v>
       </c>
-      <c r="P81" s="0" t="n">
+      <c r="P81" s="2" t="n">
         <v>0.76</v>
       </c>
-      <c r="Q81" s="0" t="n">
+      <c r="Q81" s="2" t="n">
         <v>129</v>
       </c>
-      <c r="S81" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T81" s="0" t="n">
+      <c r="S81" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T81" s="2" t="n">
         <v>0.74</v>
       </c>
-      <c r="U81" s="0" t="n">
+      <c r="U81" s="2" t="n">
         <v>0.69</v>
       </c>
-      <c r="V81" s="0" t="n">
+      <c r="V81" s="2" t="n">
         <v>0.71</v>
       </c>
-      <c r="W81" s="0" t="n">
+      <c r="W81" s="2" t="n">
         <v>129</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B82" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C82" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D82" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E82" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G82" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H82" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M82" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O82" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P82" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q82" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S82" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T82" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U82" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="V82" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="W82" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B83" s="0" t="n">
+    <row r="82" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H82" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S82" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T82" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U82" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V82" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B83" s="2" t="n">
         <v>0.93</v>
       </c>
-      <c r="C83" s="0" t="n">
+      <c r="C83" s="2" t="n">
         <v>0.93</v>
       </c>
-      <c r="D83" s="0" t="n">
+      <c r="D83" s="2" t="n">
         <v>0.93</v>
       </c>
-      <c r="E83" s="0" t="n">
+      <c r="E83" s="2" t="n">
         <v>499</v>
       </c>
-      <c r="G83" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H83" s="0" t="n">
+      <c r="G83" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H83" s="2" t="n">
         <v>0.93</v>
       </c>
-      <c r="I83" s="0" t="n">
+      <c r="I83" s="2" t="n">
         <v>0.94</v>
       </c>
-      <c r="J83" s="0" t="n">
+      <c r="J83" s="2" t="n">
         <v>0.94</v>
       </c>
-      <c r="K83" s="0" t="n">
+      <c r="K83" s="2" t="n">
         <v>499</v>
       </c>
-      <c r="M83" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N83" s="0" t="n">
+      <c r="M83" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" s="2" t="n">
         <v>0.93</v>
       </c>
-      <c r="O83" s="0" t="n">
+      <c r="O83" s="2" t="n">
         <v>0.95</v>
       </c>
-      <c r="P83" s="0" t="n">
+      <c r="P83" s="2" t="n">
         <v>0.94</v>
       </c>
-      <c r="Q83" s="0" t="n">
+      <c r="Q83" s="2" t="n">
         <v>499</v>
       </c>
-      <c r="S83" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="T83" s="0" t="n">
+      <c r="S83" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="T83" s="2" t="n">
         <v>0.92</v>
       </c>
-      <c r="U83" s="0" t="n">
+      <c r="U83" s="2" t="n">
         <v>0.93</v>
       </c>
-      <c r="V83" s="0" t="n">
+      <c r="V83" s="2" t="n">
         <v>0.93</v>
       </c>
-      <c r="W83" s="0" t="n">
+      <c r="W83" s="2" t="n">
         <v>499</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B84" s="0" t="n">
+    <row r="84" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" s="2" t="n">
         <v>0.55</v>
       </c>
-      <c r="C84" s="0" t="n">
+      <c r="C84" s="2" t="n">
         <v>0.55</v>
       </c>
-      <c r="D84" s="0" t="n">
+      <c r="D84" s="2" t="n">
         <v>0.55</v>
       </c>
-      <c r="E84" s="0" t="n">
+      <c r="E84" s="2" t="n">
         <v>628</v>
       </c>
-      <c r="G84" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="H84" s="0" t="n">
+      <c r="G84" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H84" s="2" t="n">
         <v>0.56</v>
       </c>
-      <c r="I84" s="0" t="n">
+      <c r="I84" s="2" t="n">
         <v>0.56</v>
       </c>
-      <c r="J84" s="0" t="n">
+      <c r="J84" s="2" t="n">
         <v>0.56</v>
       </c>
-      <c r="K84" s="0" t="n">
+      <c r="K84" s="2" t="n">
         <v>628</v>
       </c>
-      <c r="M84" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="N84" s="0" t="n">
+      <c r="M84" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N84" s="2" t="n">
         <v>0.57</v>
       </c>
-      <c r="O84" s="0" t="n">
+      <c r="O84" s="2" t="n">
         <v>0.56</v>
       </c>
-      <c r="P84" s="0" t="n">
+      <c r="P84" s="2" t="n">
         <v>0.56</v>
       </c>
-      <c r="Q84" s="0" t="n">
+      <c r="Q84" s="2" t="n">
         <v>628</v>
       </c>
-      <c r="S84" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="T84" s="0" t="n">
+      <c r="S84" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T84" s="2" t="n">
         <v>0.55</v>
       </c>
-      <c r="U84" s="0" t="n">
+      <c r="U84" s="2" t="n">
         <v>0.54</v>
       </c>
-      <c r="V84" s="0" t="n">
+      <c r="V84" s="2" t="n">
         <v>0.55</v>
       </c>
-      <c r="W84" s="0" t="n">
+      <c r="W84" s="2" t="n">
         <v>628</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+    <row r="85" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="86" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="87" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G87" s="0" t="s">
+      <c r="G87" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M87" s="0" t="s">
+      <c r="M87" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S87" s="0" t="s">
+      <c r="S87" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C88" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D88" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E88" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H88" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="I88" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="J88" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="K88" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="N88" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="O88" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="P88" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q88" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="T88" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="U88" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="V88" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="W88" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B89" s="0" t="n">
+    <row r="88" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N88" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O88" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T88" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U88" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="V88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W88" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B89" s="2" t="n">
         <v>0.3</v>
       </c>
-      <c r="C89" s="0" t="n">
+      <c r="C89" s="2" t="n">
         <v>0.33</v>
       </c>
-      <c r="D89" s="0" t="n">
+      <c r="D89" s="2" t="n">
         <v>0.32</v>
       </c>
-      <c r="E89" s="0" t="n">
+      <c r="E89" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="G89" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H89" s="0" t="n">
+      <c r="G89" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" s="2" t="n">
         <v>0.31</v>
       </c>
-      <c r="I89" s="0" t="n">
+      <c r="I89" s="2" t="n">
         <v>0.28</v>
       </c>
-      <c r="J89" s="0" t="n">
+      <c r="J89" s="2" t="n">
         <v>0.29</v>
       </c>
-      <c r="K89" s="0" t="n">
+      <c r="K89" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="M89" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N89" s="0" t="n">
+      <c r="M89" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" s="2" t="n">
         <v>0.37</v>
       </c>
-      <c r="O89" s="0" t="n">
+      <c r="O89" s="2" t="n">
         <v>0.19</v>
       </c>
-      <c r="P89" s="0" t="n">
+      <c r="P89" s="2" t="n">
         <v>0.25</v>
       </c>
-      <c r="Q89" s="0" t="n">
+      <c r="Q89" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="S89" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T89" s="0" t="n">
+      <c r="S89" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T89" s="2" t="n">
         <v>0.37</v>
       </c>
-      <c r="U89" s="0" t="n">
+      <c r="U89" s="2" t="n">
         <v>0.36</v>
       </c>
-      <c r="V89" s="0" t="n">
+      <c r="V89" s="2" t="n">
         <v>0.37</v>
       </c>
-      <c r="W89" s="0" t="n">
+      <c r="W89" s="2" t="n">
         <v>36</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B90" s="0" t="n">
+    <row r="90" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B90" s="2" t="n">
         <v>0.95</v>
       </c>
-      <c r="C90" s="0" t="n">
+      <c r="C90" s="2" t="n">
         <v>0.87</v>
       </c>
-      <c r="D90" s="0" t="n">
+      <c r="D90" s="2" t="n">
         <v>0.91</v>
       </c>
-      <c r="E90" s="0" t="n">
+      <c r="E90" s="2" t="n">
         <v>501</v>
       </c>
-      <c r="G90" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H90" s="0" t="n">
+      <c r="G90" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" s="2" t="n">
         <v>0.95</v>
       </c>
-      <c r="I90" s="0" t="n">
+      <c r="I90" s="2" t="n">
         <v>0.91</v>
       </c>
-      <c r="J90" s="0" t="n">
+      <c r="J90" s="2" t="n">
         <v>0.93</v>
       </c>
-      <c r="K90" s="0" t="n">
+      <c r="K90" s="2" t="n">
         <v>501</v>
       </c>
-      <c r="M90" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" s="0" t="n">
+      <c r="M90" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" s="2" t="n">
         <v>0.93</v>
       </c>
-      <c r="O90" s="0" t="n">
+      <c r="O90" s="2" t="n">
         <v>0.88</v>
       </c>
-      <c r="P90" s="0" t="n">
+      <c r="P90" s="2" t="n">
         <v>0.91</v>
       </c>
-      <c r="Q90" s="0" t="n">
+      <c r="Q90" s="2" t="n">
         <v>501</v>
       </c>
-      <c r="S90" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T90" s="0" t="n">
+      <c r="S90" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T90" s="2" t="n">
         <v>0.95</v>
       </c>
-      <c r="U90" s="0" t="n">
+      <c r="U90" s="2" t="n">
         <v>0.89</v>
       </c>
-      <c r="V90" s="0" t="n">
+      <c r="V90" s="2" t="n">
         <v>0.92</v>
       </c>
-      <c r="W90" s="0" t="n">
+      <c r="W90" s="2" t="n">
         <v>501</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B91" s="0" t="n">
+    <row r="91" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B91" s="2" t="n">
         <v>0.7</v>
       </c>
-      <c r="C91" s="0" t="n">
+      <c r="C91" s="2" t="n">
         <v>0.94</v>
       </c>
-      <c r="D91" s="0" t="n">
+      <c r="D91" s="2" t="n">
         <v>0.8</v>
       </c>
-      <c r="E91" s="0" t="n">
+      <c r="E91" s="2" t="n">
         <v>113</v>
       </c>
-      <c r="G91" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H91" s="0" t="n">
+      <c r="G91" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H91" s="2" t="n">
         <v>0.77</v>
       </c>
-      <c r="I91" s="0" t="n">
+      <c r="I91" s="2" t="n">
         <v>0.96</v>
       </c>
-      <c r="J91" s="0" t="n">
+      <c r="J91" s="2" t="n">
         <v>0.85</v>
       </c>
-      <c r="K91" s="0" t="n">
+      <c r="K91" s="2" t="n">
         <v>113</v>
       </c>
-      <c r="M91" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="N91" s="0" t="n">
+      <c r="M91" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N91" s="2" t="n">
         <v>0.64</v>
       </c>
-      <c r="O91" s="0" t="n">
+      <c r="O91" s="2" t="n">
         <v>0.87</v>
       </c>
-      <c r="P91" s="0" t="n">
+      <c r="P91" s="2" t="n">
         <v>0.73</v>
       </c>
-      <c r="Q91" s="0" t="n">
+      <c r="Q91" s="2" t="n">
         <v>113</v>
       </c>
-      <c r="S91" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="T91" s="0" t="n">
+      <c r="S91" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="T91" s="2" t="n">
         <v>0.73</v>
       </c>
-      <c r="U91" s="0" t="n">
+      <c r="U91" s="2" t="n">
         <v>0.94</v>
       </c>
-      <c r="V91" s="0" t="n">
+      <c r="V91" s="2" t="n">
         <v>0.82</v>
       </c>
-      <c r="W91" s="0" t="n">
+      <c r="W91" s="2" t="n">
         <v>113</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B92" s="0" t="n">
+    <row r="92" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" s="2" t="n">
         <v>0.65</v>
       </c>
-      <c r="C92" s="0" t="n">
+      <c r="C92" s="2" t="n">
         <v>0.71</v>
       </c>
-      <c r="D92" s="0" t="n">
+      <c r="D92" s="2" t="n">
         <v>0.68</v>
       </c>
-      <c r="E92" s="0" t="n">
+      <c r="E92" s="2" t="n">
         <v>650</v>
       </c>
-      <c r="G92" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="H92" s="0" t="n">
+      <c r="G92" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H92" s="2" t="n">
         <v>0.68</v>
       </c>
-      <c r="I92" s="0" t="n">
+      <c r="I92" s="2" t="n">
         <v>0.71</v>
       </c>
-      <c r="J92" s="0" t="n">
+      <c r="J92" s="2" t="n">
         <v>0.69</v>
       </c>
-      <c r="K92" s="0" t="n">
+      <c r="K92" s="2" t="n">
         <v>650</v>
       </c>
-      <c r="M92" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="N92" s="0" t="n">
+      <c r="M92" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N92" s="2" t="n">
         <v>0.64</v>
       </c>
-      <c r="O92" s="0" t="n">
+      <c r="O92" s="2" t="n">
         <v>0.65</v>
       </c>
-      <c r="P92" s="0" t="n">
+      <c r="P92" s="2" t="n">
         <v>0.63</v>
       </c>
-      <c r="Q92" s="0" t="n">
+      <c r="Q92" s="2" t="n">
         <v>650</v>
       </c>
-      <c r="S92" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="T92" s="0" t="n">
+      <c r="S92" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T92" s="2" t="n">
         <v>0.68</v>
       </c>
-      <c r="U92" s="0" t="n">
+      <c r="U92" s="2" t="n">
         <v>0.73</v>
       </c>
-      <c r="V92" s="0" t="n">
+      <c r="V92" s="2" t="n">
         <v>0.7</v>
       </c>
-      <c r="W92" s="0" t="n">
+      <c r="W92" s="2" t="n">
         <v>650</v>
       </c>
     </row>
@@ -7342,8 +7358,8 @@
   </sheetPr>
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="B15:E17 B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/output/analysis/dataset=td,c,tdc-b/scaling_minmax.xlsx
+++ b/output/analysis/dataset=td,c,tdc-b/scaling_minmax.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="data=td" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="data=c" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="data=tdc-b" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="data=old preprocess" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="data=tdsmall" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="data=old preprocess" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="36">
   <si>
     <t xml:space="preserve">feature=td, sf=none</t>
   </si>
@@ -85,52 +86,52 @@
     <t xml:space="preserve">_tdcb_tdf sf-none</t>
   </si>
   <si>
-    <t xml:space="preserve">feature-c_skip, sf=none</t>
+    <t xml:space="preserve">_tdcb_cbf sf-none</t>
   </si>
   <si>
-    <t xml:space="preserve">feature-c_other (ngram, ngram pos, skipgram pos), sf=none</t>
+    <t xml:space="preserve">_tdcb_cskip sf none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_tdcb_cskip.po skipgram only on pos</t>
   </si>
   <si>
     <t xml:space="preserve"> for data from c :</t>
   </si>
   <si>
-    <t xml:space="preserve"> n-fold for data from c :</t>
-  </si>
-  <si>
     <t xml:space="preserve"> for data from td :</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> n-fold for data from td :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">for data from c :</t>
-  </si>
-  <si>
-    <t xml:space="preserve">for data from td :</t>
   </si>
   <si>
     <t xml:space="preserve">sf=kb</t>
   </si>
   <si>
+    <t xml:space="preserve">sf=sfm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feature=original preprocess, td, sf=none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_tdsmall_tdf sf=none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_tdsmall_cbf sf=none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_tdsmall_cskip sf=none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cskip.po only sf=none</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_tdsmall_tdf.po-kb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feature=td, sf=kb</t>
+  </si>
+  <si>
     <t xml:space="preserve">feature=cbf, sf=kb</t>
   </si>
   <si>
-    <t xml:space="preserve">feature-c_skip, sf=kb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feature-c_other (ngram, ngram pos, skipgram pos), sf=kb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sf=sfm</t>
-  </si>
-  <si>
     <t xml:space="preserve">feature=cbf, sf=sfm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feature-c_skip, sf=sfm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">feature-c_other (ngram, ngram pos, skipgram pos), sf=sfm</t>
   </si>
 </sst>
 </file>
@@ -410,7 +411,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -424,6 +425,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -531,7 +536,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="139:139 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="13:13 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1211,7 +1216,7 @@
   <dimension ref="A1:AC35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="1" sqref="139:139 A11"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="1" sqref="13:13 A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3094,36 +3099,42 @@
   </sheetPr>
   <dimension ref="A1:AC139"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A139" activeCellId="0" sqref="139:139"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O29" activeCellId="1" sqref="13:13 O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.1"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="26.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="5.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.1"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="26.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="26.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="5.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="8.1"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="26.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="28.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="5.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="8.1"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="30" min="24" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="31.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="6.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="5.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="8.1"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="26.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="6.42"/>
@@ -3132,22 +3143,34 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="36" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="4" t="s">
         <v>19</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
       <c r="S1" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
       <c r="Y1" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
@@ -3249,7 +3272,7 @@
         <v>0.38</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="P3" s="0" t="n">
         <v>0.48</v>
@@ -3261,13 +3284,13 @@
         <v>0</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>0.24</v>
+        <v>0.29</v>
       </c>
       <c r="U3" s="0" t="n">
         <v>0.72</v>
       </c>
       <c r="V3" s="0" t="n">
-        <v>0.36</v>
+        <v>0.41</v>
       </c>
       <c r="W3" s="0" t="n">
         <v>402</v>
@@ -3276,13 +3299,13 @@
         <v>0</v>
       </c>
       <c r="Z3" s="0" t="n">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
       <c r="AA3" s="0" t="n">
-        <v>0.68</v>
+        <v>0.72</v>
       </c>
       <c r="AB3" s="0" t="n">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="AC3" s="0" t="n">
         <v>402</v>
@@ -3323,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="O4" s="0" t="n">
         <v>0.84</v>
@@ -3341,10 +3364,10 @@
         <v>0.89</v>
       </c>
       <c r="U4" s="0" t="n">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="V4" s="0" t="n">
-        <v>0.81</v>
+        <v>0.83</v>
       </c>
       <c r="W4" s="0" t="n">
         <v>1559</v>
@@ -3353,10 +3376,10 @@
         <v>1</v>
       </c>
       <c r="Z4" s="0" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="AA4" s="0" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AB4" s="0" t="n">
         <v>0.83</v>
@@ -3400,13 +3423,13 @@
         <v>2</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>0.81</v>
+        <v>0.82</v>
       </c>
       <c r="Q5" s="0" t="n">
         <v>1872</v>
@@ -3418,10 +3441,10 @@
         <v>0.9</v>
       </c>
       <c r="U5" s="0" t="n">
-        <v>0.65</v>
+        <v>0.69</v>
       </c>
       <c r="V5" s="0" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="W5" s="0" t="n">
         <v>1872</v>
@@ -3430,13 +3453,13 @@
         <v>2</v>
       </c>
       <c r="Z5" s="0" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AA5" s="0" t="n">
         <v>0.71</v>
       </c>
       <c r="AB5" s="0" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="AC5" s="0" t="n">
         <v>1872</v>
@@ -3477,13 +3500,13 @@
         <v>6</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="Q6" s="0" t="n">
         <v>3833</v>
@@ -3492,13 +3515,13 @@
         <v>6</v>
       </c>
       <c r="T6" s="0" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="V6" s="0" t="n">
         <v>0.68</v>
-      </c>
-      <c r="U6" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="V6" s="0" t="n">
-        <v>0.64</v>
       </c>
       <c r="W6" s="0" t="n">
         <v>3833</v>
@@ -3507,13 +3530,13 @@
         <v>6</v>
       </c>
       <c r="Z6" s="0" t="n">
-        <v>0.69</v>
+        <v>0.7</v>
       </c>
       <c r="AA6" s="0" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AB6" s="0" t="n">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="AC6" s="0" t="n">
         <v>3833</v>
@@ -3521,19 +3544,19 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>23</v>
       </c>
       <c r="S9" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y9" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3633,13 +3656,13 @@
         <v>0</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>0.59</v>
+        <v>0.61</v>
       </c>
       <c r="Q11" s="0" t="n">
         <v>285</v>
@@ -3648,13 +3671,13 @@
         <v>0</v>
       </c>
       <c r="T11" s="0" t="n">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
       <c r="U11" s="0" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="V11" s="0" t="n">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="W11" s="0" t="n">
         <v>285</v>
@@ -3663,13 +3686,13 @@
         <v>0</v>
       </c>
       <c r="Z11" s="0" t="n">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="AA11" s="0" t="n">
-        <v>0.78</v>
+        <v>0.83</v>
       </c>
       <c r="AB11" s="0" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="AC11" s="0" t="n">
         <v>285</v>
@@ -3787,13 +3810,13 @@
         <v>2</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="Q13" s="0" t="n">
         <v>1521</v>
@@ -3805,10 +3828,10 @@
         <v>0.96</v>
       </c>
       <c r="U13" s="0" t="n">
-        <v>0.67</v>
+        <v>0.72</v>
       </c>
       <c r="V13" s="0" t="n">
-        <v>0.79</v>
+        <v>0.82</v>
       </c>
       <c r="W13" s="0" t="n">
         <v>1521</v>
@@ -3817,13 +3840,13 @@
         <v>2</v>
       </c>
       <c r="Z13" s="0" t="n">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="AA13" s="0" t="n">
         <v>0.74</v>
       </c>
       <c r="AB13" s="0" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="AC13" s="0" t="n">
         <v>1521</v>
@@ -3864,13 +3887,13 @@
         <v>6</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="Q14" s="0" t="n">
         <v>1806</v>
@@ -3879,13 +3902,13 @@
         <v>6</v>
       </c>
       <c r="T14" s="0" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="U14" s="0" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="V14" s="0" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="W14" s="0" t="n">
         <v>1806</v>
@@ -3894,13 +3917,13 @@
         <v>6</v>
       </c>
       <c r="Z14" s="0" t="n">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="AA14" s="0" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="AB14" s="0" t="n">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="AC14" s="0" t="n">
         <v>1806</v>
@@ -3914,7 +3937,7 @@
         <v>24</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S17" s="0" t="s">
         <v>24</v>
@@ -4020,13 +4043,13 @@
         <v>0</v>
       </c>
       <c r="N19" s="0" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="O19" s="0" t="n">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
       <c r="P19" s="0" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="Q19" s="0" t="n">
         <v>117</v>
@@ -4035,13 +4058,13 @@
         <v>0</v>
       </c>
       <c r="T19" s="0" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="U19" s="0" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="V19" s="0" t="n">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="W19" s="0" t="n">
         <v>117</v>
@@ -4050,13 +4073,13 @@
         <v>0</v>
       </c>
       <c r="Z19" s="0" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="AA19" s="0" t="n">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="AB19" s="0" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="AC19" s="0" t="n">
         <v>117</v>
@@ -4115,10 +4138,10 @@
         <v>0.92</v>
       </c>
       <c r="U20" s="0" t="n">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="V20" s="0" t="n">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="W20" s="0" t="n">
         <v>1559</v>
@@ -4130,10 +4153,10 @@
         <v>0.91</v>
       </c>
       <c r="AA20" s="0" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AB20" s="0" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AC20" s="0" t="n">
         <v>1559</v>
@@ -4174,13 +4197,13 @@
         <v>2</v>
       </c>
       <c r="N21" s="0" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="O21" s="0" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="P21" s="0" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
       <c r="Q21" s="0" t="n">
         <v>351</v>
@@ -4189,10 +4212,10 @@
         <v>2</v>
       </c>
       <c r="T21" s="0" t="n">
-        <v>0.69</v>
+        <v>0.67</v>
       </c>
       <c r="U21" s="0" t="n">
-        <v>0.58</v>
+        <v>0.6</v>
       </c>
       <c r="V21" s="0" t="n">
         <v>0.63</v>
@@ -4204,13 +4227,13 @@
         <v>2</v>
       </c>
       <c r="Z21" s="0" t="n">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
       <c r="AA21" s="0" t="n">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AB21" s="0" t="n">
-        <v>0.61</v>
+        <v>0.64</v>
       </c>
       <c r="AC21" s="0" t="n">
         <v>351</v>
@@ -4257,7 +4280,7 @@
         <v>0.6</v>
       </c>
       <c r="P22" s="0" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="Q22" s="0" t="n">
         <v>2027</v>
@@ -4269,10 +4292,10 @@
         <v>0.57</v>
       </c>
       <c r="U22" s="0" t="n">
-        <v>0.57</v>
+        <v>0.61</v>
       </c>
       <c r="V22" s="0" t="n">
-        <v>0.53</v>
+        <v>0.56</v>
       </c>
       <c r="W22" s="0" t="n">
         <v>2027</v>
@@ -4281,13 +4304,13 @@
         <v>6</v>
       </c>
       <c r="Z22" s="0" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="AA22" s="0" t="n">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="AB22" s="0" t="n">
-        <v>0.56</v>
+        <v>0.58</v>
       </c>
       <c r="AC22" s="0" t="n">
         <v>2027</v>
@@ -4410,10 +4433,10 @@
         <v>0.59</v>
       </c>
       <c r="O26" s="0" t="n">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="P26" s="0" t="n">
-        <v>0.56</v>
+        <v>0.57</v>
       </c>
       <c r="Q26" s="0" t="n">
         <v>165</v>
@@ -4422,13 +4445,13 @@
         <v>0</v>
       </c>
       <c r="T26" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="U26" s="0" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="V26" s="0" t="n">
         <v>0.6</v>
-      </c>
-      <c r="U26" s="0" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="V26" s="0" t="n">
-        <v>0.61</v>
       </c>
       <c r="W26" s="0" t="n">
         <v>165</v>
@@ -4437,13 +4460,13 @@
         <v>0</v>
       </c>
       <c r="Z26" s="0" t="n">
-        <v>0.57</v>
+        <v>0.62</v>
       </c>
       <c r="AA26" s="0" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="AB26" s="0" t="n">
-        <v>0.56</v>
+        <v>0.58</v>
       </c>
       <c r="AC26" s="0" t="n">
         <v>165</v>
@@ -4484,13 +4507,13 @@
         <v>1</v>
       </c>
       <c r="N27" s="0" t="n">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="O27" s="0" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="P27" s="0" t="n">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="Q27" s="0" t="n">
         <v>501</v>
@@ -4499,13 +4522,13 @@
         <v>1</v>
       </c>
       <c r="T27" s="0" t="n">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="U27" s="0" t="n">
         <v>0.87</v>
       </c>
       <c r="V27" s="0" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="W27" s="0" t="n">
         <v>501</v>
@@ -4514,10 +4537,10 @@
         <v>1</v>
       </c>
       <c r="Z27" s="0" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="AA27" s="0" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AB27" s="0" t="n">
         <v>0.85</v>
@@ -4561,7 +4584,7 @@
         <v>2</v>
       </c>
       <c r="N28" s="0" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>0.87</v>
@@ -4576,13 +4599,13 @@
         <v>2</v>
       </c>
       <c r="T28" s="0" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="U28" s="0" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="V28" s="0" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="W28" s="0" t="n">
         <v>612</v>
@@ -4591,13 +4614,13 @@
         <v>2</v>
       </c>
       <c r="Z28" s="0" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AA28" s="0" t="n">
         <v>0.86</v>
       </c>
-      <c r="AA28" s="0" t="n">
-        <v>0.84</v>
-      </c>
       <c r="AB28" s="0" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="AC28" s="0" t="n">
         <v>612</v>
@@ -4620,70 +4643,70 @@
         <v>1278</v>
       </c>
       <c r="F29" s="2"/>
-      <c r="G29" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H29" s="0" t="n">
+      <c r="G29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="3" t="n">
         <v>0.75</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="I29" s="3" t="n">
         <v>0.74</v>
       </c>
-      <c r="J29" s="0" t="n">
+      <c r="J29" s="3" t="n">
         <v>0.75</v>
       </c>
-      <c r="K29" s="0" t="n">
+      <c r="K29" s="3" t="n">
         <v>1278</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N29" s="3" t="n">
+      <c r="M29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N29" s="2" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="O29" s="2" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="P29" s="2" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="Q29" s="2" t="n">
+        <v>1278</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T29" s="2" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="U29" s="2" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="V29" s="2" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="W29" s="2" t="n">
+        <v>1278</v>
+      </c>
+      <c r="Y29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z29" s="2" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AA29" s="2" t="n">
         <v>0.76</v>
       </c>
-      <c r="O29" s="3" t="n">
+      <c r="AB29" s="2" t="n">
         <v>0.76</v>
       </c>
-      <c r="P29" s="3" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="Q29" s="3" t="n">
+      <c r="AC29" s="2" t="n">
         <v>1278</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T29" s="3" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="U29" s="3" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="V29" s="3" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="W29" s="3" t="n">
-        <v>1278</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z29" s="3" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AA29" s="3" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AB29" s="3" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AC29" s="3" t="n">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="32" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="32" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -4691,23 +4714,35 @@
       <c r="E32" s="0"/>
       <c r="F32" s="0"/>
       <c r="G32" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H32" s="0"/>
       <c r="I32" s="0"/>
       <c r="J32" s="0"/>
       <c r="K32" s="0"/>
-      <c r="M32" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="S32" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y32" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M32" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="N32" s="0"/>
+      <c r="O32" s="0"/>
+      <c r="P32" s="0"/>
+      <c r="Q32" s="0"/>
+      <c r="S32" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="T32" s="0"/>
+      <c r="U32" s="0"/>
+      <c r="V32" s="0"/>
+      <c r="W32" s="0"/>
+      <c r="Y32" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z32" s="0"/>
+      <c r="AA32" s="0"/>
+      <c r="AB32" s="0"/>
+      <c r="AC32" s="0"/>
+    </row>
+    <row r="33" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0"/>
       <c r="B33" s="0" t="s">
         <v>2</v>
@@ -4735,44 +4770,47 @@
       <c r="K33" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="N33" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O33" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="P33" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q33" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="T33" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="U33" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="V33" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W33" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z33" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA33" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB33" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC33" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M33" s="0"/>
+      <c r="N33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O33" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="S33" s="0"/>
+      <c r="T33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U33" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="V33" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="W33" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y33" s="0"/>
+      <c r="Z33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA33" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB33" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC33" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>0</v>
       </c>
@@ -4804,53 +4842,53 @@
       <c r="K34" s="0" t="n">
         <v>129</v>
       </c>
-      <c r="M34" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="O34" s="4" t="n">
+      <c r="M34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="O34" s="0" t="n">
         <v>0.62</v>
       </c>
-      <c r="P34" s="4" t="n">
-        <v>0.69</v>
-      </c>
-      <c r="Q34" s="4" t="n">
+      <c r="P34" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="Q34" s="0" t="n">
         <v>129</v>
       </c>
-      <c r="S34" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="U34" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="V34" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="W34" s="4" t="n">
+      <c r="S34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="U34" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="V34" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="W34" s="0" t="n">
         <v>129</v>
       </c>
-      <c r="Y34" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="AA34" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AB34" s="4" t="n">
+      <c r="Y34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AA34" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AB34" s="0" t="n">
         <v>0.67</v>
       </c>
-      <c r="AC34" s="4" t="n">
+      <c r="AC34" s="0" t="n">
         <v>129</v>
       </c>
     </row>
-    <row r="35" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>1</v>
       </c>
@@ -4882,53 +4920,53 @@
       <c r="K35" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M35" s="4" t="n">
+      <c r="M35" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="N35" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" s="4" t="n">
+      <c r="N35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="T35" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="4" t="n">
+      <c r="T35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="Z35" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <v>2</v>
       </c>
@@ -4960,53 +4998,53 @@
       <c r="K36" s="0" t="n">
         <v>499</v>
       </c>
-      <c r="M36" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N36" s="4" t="n">
+      <c r="M36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" s="0" t="n">
         <v>0.92</v>
       </c>
-      <c r="O36" s="4" t="n">
+      <c r="O36" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="Q36" s="0" t="n">
+        <v>499</v>
+      </c>
+      <c r="S36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T36" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="U36" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="V36" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="W36" s="0" t="n">
+        <v>499</v>
+      </c>
+      <c r="Y36" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z36" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AA36" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AB36" s="0" t="n">
         <v>0.9</v>
       </c>
-      <c r="P36" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="Q36" s="4" t="n">
+      <c r="AC36" s="0" t="n">
         <v>499</v>
       </c>
-      <c r="S36" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="T36" s="4" t="n">
-        <v>0.94</v>
-      </c>
-      <c r="U36" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="V36" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="W36" s="4" t="n">
-        <v>499</v>
-      </c>
-      <c r="Y36" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z36" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AA36" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AB36" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AC36" s="4" t="n">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="37" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="37" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>6</v>
       </c>
@@ -5023,68 +5061,68 @@
         <v>628</v>
       </c>
       <c r="F37" s="2"/>
-      <c r="G37" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H37" s="0" t="n">
+      <c r="G37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" s="3" t="n">
         <v>0.54</v>
       </c>
-      <c r="I37" s="0" t="n">
+      <c r="I37" s="3" t="n">
         <v>0.49</v>
       </c>
-      <c r="J37" s="0" t="n">
+      <c r="J37" s="3" t="n">
         <v>0.51</v>
       </c>
-      <c r="K37" s="0" t="n">
+      <c r="K37" s="3" t="n">
         <v>628</v>
       </c>
-      <c r="M37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="N37" s="5" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="O37" s="5" t="n">
+      <c r="M37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N37" s="2" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="O37" s="2" t="n">
         <v>0.51</v>
       </c>
-      <c r="P37" s="5" t="n">
+      <c r="P37" s="2" t="n">
         <v>0.53</v>
       </c>
-      <c r="Q37" s="5" t="n">
+      <c r="Q37" s="2" t="n">
         <v>628</v>
       </c>
-      <c r="S37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="T37" s="5" t="n">
+      <c r="S37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T37" s="2" t="n">
         <v>0.56</v>
       </c>
-      <c r="U37" s="5" t="n">
+      <c r="U37" s="2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="V37" s="2" t="n">
         <v>0.54</v>
       </c>
-      <c r="V37" s="5" t="n">
+      <c r="W37" s="2" t="n">
+        <v>628</v>
+      </c>
+      <c r="Y37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z37" s="2" t="n">
         <v>0.55</v>
       </c>
-      <c r="W37" s="5" t="n">
+      <c r="AA37" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AB37" s="2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AC37" s="2" t="n">
         <v>628</v>
       </c>
-      <c r="Y37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z37" s="5" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AA37" s="5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AB37" s="5" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="AC37" s="5" t="n">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="38" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="38" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0"/>
       <c r="B38" s="0"/>
       <c r="C38" s="0"/>
@@ -5096,8 +5134,23 @@
       <c r="I38" s="0"/>
       <c r="J38" s="0"/>
       <c r="K38" s="0"/>
-    </row>
-    <row r="39" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M38" s="0"/>
+      <c r="N38" s="0"/>
+      <c r="O38" s="0"/>
+      <c r="P38" s="0"/>
+      <c r="Q38" s="0"/>
+      <c r="S38" s="0"/>
+      <c r="T38" s="0"/>
+      <c r="U38" s="0"/>
+      <c r="V38" s="0"/>
+      <c r="W38" s="0"/>
+      <c r="Y38" s="0"/>
+      <c r="Z38" s="0"/>
+      <c r="AA38" s="0"/>
+      <c r="AB38" s="0"/>
+      <c r="AC38" s="0"/>
+    </row>
+    <row r="39" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0"/>
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
@@ -5109,8 +5162,23 @@
       <c r="I39" s="0"/>
       <c r="J39" s="0"/>
       <c r="K39" s="0"/>
-    </row>
-    <row r="40" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M39" s="0"/>
+      <c r="N39" s="0"/>
+      <c r="O39" s="0"/>
+      <c r="P39" s="0"/>
+      <c r="Q39" s="0"/>
+      <c r="S39" s="0"/>
+      <c r="T39" s="0"/>
+      <c r="U39" s="0"/>
+      <c r="V39" s="0"/>
+      <c r="W39" s="0"/>
+      <c r="Y39" s="0"/>
+      <c r="Z39" s="0"/>
+      <c r="AA39" s="0"/>
+      <c r="AB39" s="0"/>
+      <c r="AC39" s="0"/>
+    </row>
+    <row r="40" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>24</v>
       </c>
@@ -5126,17 +5194,29 @@
       <c r="I40" s="0"/>
       <c r="J40" s="0"/>
       <c r="K40" s="0"/>
-      <c r="M40" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="S40" s="4" t="s">
+      <c r="M40" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="Y40" s="4" t="s">
+      <c r="N40" s="0"/>
+      <c r="O40" s="0"/>
+      <c r="P40" s="0"/>
+      <c r="Q40" s="0"/>
+      <c r="S40" s="0" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="41" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T40" s="0"/>
+      <c r="U40" s="0"/>
+      <c r="V40" s="0"/>
+      <c r="W40" s="0"/>
+      <c r="Y40" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z40" s="0"/>
+      <c r="AA40" s="0"/>
+      <c r="AB40" s="0"/>
+      <c r="AC40" s="0"/>
+    </row>
+    <row r="41" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0"/>
       <c r="B41" s="0" t="s">
         <v>2</v>
@@ -5164,44 +5244,47 @@
       <c r="K41" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="N41" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O41" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="P41" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q41" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="T41" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="U41" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="V41" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W41" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z41" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA41" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB41" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC41" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M41" s="0"/>
+      <c r="N41" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O41" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q41" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="0"/>
+      <c r="T41" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U41" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="V41" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="W41" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y41" s="0"/>
+      <c r="Z41" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA41" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB41" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC41" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <v>0</v>
       </c>
@@ -5233,53 +5316,53 @@
       <c r="K42" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="M42" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="O42" s="4" t="n">
+      <c r="M42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" s="0" t="n">
         <v>0.22</v>
       </c>
-      <c r="P42" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Q42" s="4" t="n">
+      <c r="O42" s="0" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="P42" s="0" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="Q42" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="S42" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="U42" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="V42" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="W42" s="4" t="n">
+      <c r="S42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" s="0" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="U42" s="0" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="V42" s="0" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="W42" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="Y42" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="AA42" s="4" t="n">
+      <c r="Y42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="0" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AA42" s="0" t="n">
         <v>0.28</v>
       </c>
-      <c r="AB42" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="AC42" s="4" t="n">
+      <c r="AB42" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AC42" s="0" t="n">
         <v>36</v>
       </c>
     </row>
-    <row r="43" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <v>1</v>
       </c>
@@ -5311,53 +5394,53 @@
       <c r="K43" s="0" t="n">
         <v>501</v>
       </c>
-      <c r="M43" s="4" t="n">
+      <c r="M43" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="N43" s="4" t="n">
+      <c r="N43" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="O43" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="P43" s="0" t="n">
         <v>0.9</v>
       </c>
-      <c r="O43" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="P43" s="4" t="n">
+      <c r="Q43" s="0" t="n">
+        <v>501</v>
+      </c>
+      <c r="S43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="U43" s="0" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="V43" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="W43" s="0" t="n">
+        <v>501</v>
+      </c>
+      <c r="Y43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AA43" s="0" t="n">
         <v>0.88</v>
       </c>
-      <c r="Q43" s="4" t="n">
+      <c r="AB43" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AC43" s="0" t="n">
         <v>501</v>
       </c>
-      <c r="S43" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="T43" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="U43" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="V43" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="W43" s="4" t="n">
-        <v>501</v>
-      </c>
-      <c r="Y43" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z43" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AA43" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AB43" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AC43" s="4" t="n">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="44" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="44" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
         <v>2</v>
       </c>
@@ -5389,53 +5472,53 @@
       <c r="K44" s="0" t="n">
         <v>113</v>
       </c>
-      <c r="M44" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N44" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="O44" s="4" t="n">
+      <c r="M44" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="O44" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="P44" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Q44" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="S44" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T44" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="U44" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="V44" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="W44" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="Y44" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z44" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AA44" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AB44" s="0" t="n">
         <v>0.71</v>
       </c>
-      <c r="P44" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="Q44" s="4" t="n">
+      <c r="AC44" s="0" t="n">
         <v>113</v>
       </c>
-      <c r="S44" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="T44" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="U44" s="4" t="n">
-        <v>0.81</v>
-      </c>
-      <c r="V44" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="W44" s="4" t="n">
-        <v>113</v>
-      </c>
-      <c r="Y44" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z44" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AA44" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AB44" s="4" t="n">
-        <v>0.69</v>
-      </c>
-      <c r="AC44" s="4" t="n">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="45" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="45" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
         <v>6</v>
       </c>
@@ -5467,65 +5550,71 @@
       <c r="K45" s="2" t="n">
         <v>650</v>
       </c>
-      <c r="M45" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="N45" s="5" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="O45" s="5" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="P45" s="5" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="Q45" s="5" t="n">
+      <c r="M45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N45" s="2" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="O45" s="2" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="P45" s="2" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="Q45" s="2" t="n">
         <v>650</v>
       </c>
-      <c r="S45" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="T45" s="5" t="n">
+      <c r="S45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T45" s="2" t="n">
         <v>0.59</v>
       </c>
-      <c r="U45" s="5" t="n">
+      <c r="U45" s="2" t="n">
         <v>0.63</v>
       </c>
-      <c r="V45" s="5" t="n">
+      <c r="V45" s="2" t="n">
         <v>0.61</v>
       </c>
-      <c r="W45" s="5" t="n">
+      <c r="W45" s="2" t="n">
         <v>650</v>
       </c>
-      <c r="Y45" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z45" s="5" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AA45" s="5" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AB45" s="5" t="n">
+      <c r="Y45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z45" s="2" t="n">
         <v>0.61</v>
       </c>
-      <c r="AC45" s="5" t="n">
+      <c r="AA45" s="2" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AB45" s="2" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AC45" s="2" t="n">
         <v>650</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S48" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y48" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0" t="s">
@@ -5624,13 +5713,13 @@
         <v>0</v>
       </c>
       <c r="N50" s="0" t="n">
-        <v>0.6</v>
+        <v>0.54</v>
       </c>
       <c r="O50" s="0" t="n">
         <v>0.59</v>
       </c>
       <c r="P50" s="0" t="n">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="Q50" s="0" t="n">
         <v>402</v>
@@ -5639,13 +5728,13 @@
         <v>0</v>
       </c>
       <c r="T50" s="0" t="n">
-        <v>0.55</v>
+        <v>0.59</v>
       </c>
       <c r="U50" s="0" t="n">
         <v>0.55</v>
       </c>
       <c r="V50" s="0" t="n">
-        <v>0.55</v>
+        <v>0.57</v>
       </c>
       <c r="W50" s="0" t="n">
         <v>402</v>
@@ -5654,13 +5743,13 @@
         <v>0</v>
       </c>
       <c r="Z50" s="0" t="n">
-        <v>0.57</v>
+        <v>0.59</v>
       </c>
       <c r="AA50" s="0" t="n">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="AB50" s="0" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="AC50" s="0" t="n">
         <v>402</v>
@@ -5701,13 +5790,13 @@
         <v>1</v>
       </c>
       <c r="N51" s="0" t="n">
-        <v>0.94</v>
+        <v>0.92</v>
       </c>
       <c r="O51" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="P51" s="0" t="n">
         <v>0.9</v>
-      </c>
-      <c r="P51" s="0" t="n">
-        <v>0.91</v>
       </c>
       <c r="Q51" s="0" t="n">
         <v>1559</v>
@@ -5716,7 +5805,7 @@
         <v>1</v>
       </c>
       <c r="T51" s="0" t="n">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="U51" s="0" t="n">
         <v>0.86</v>
@@ -5734,10 +5823,10 @@
         <v>0.93</v>
       </c>
       <c r="AA51" s="0" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="AB51" s="0" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="AC51" s="0" t="n">
         <v>1559</v>
@@ -5778,13 +5867,13 @@
         <v>2</v>
       </c>
       <c r="N52" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="O52" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="P52" s="0" t="n">
         <v>0.89</v>
-      </c>
-      <c r="O52" s="0" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="P52" s="0" t="n">
-        <v>0.9</v>
       </c>
       <c r="Q52" s="0" t="n">
         <v>1872</v>
@@ -5808,10 +5897,10 @@
         <v>2</v>
       </c>
       <c r="Z52" s="0" t="n">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="AA52" s="0" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AB52" s="0" t="n">
         <v>0.89</v>
@@ -5855,13 +5944,13 @@
         <v>6</v>
       </c>
       <c r="N53" s="0" t="n">
-        <v>0.81</v>
+        <v>0.78</v>
       </c>
       <c r="O53" s="0" t="n">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="P53" s="0" t="n">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="Q53" s="0" t="n">
         <v>3833</v>
@@ -5870,13 +5959,13 @@
         <v>6</v>
       </c>
       <c r="T53" s="0" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="U53" s="0" t="n">
         <v>0.77</v>
       </c>
       <c r="V53" s="0" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="W53" s="0" t="n">
         <v>3833</v>
@@ -5885,10 +5974,10 @@
         <v>6</v>
       </c>
       <c r="Z53" s="0" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AA53" s="0" t="n">
         <v>0.8</v>
-      </c>
-      <c r="AA53" s="0" t="n">
-        <v>0.81</v>
       </c>
       <c r="AB53" s="0" t="n">
         <v>0.8</v>
@@ -5899,19 +5988,19 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M56" s="0" t="s">
         <v>23</v>
       </c>
       <c r="S56" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y56" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6011,13 +6100,13 @@
         <v>0</v>
       </c>
       <c r="N58" s="0" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="O58" s="0" t="n">
         <v>0.68</v>
       </c>
       <c r="P58" s="0" t="n">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="Q58" s="0" t="n">
         <v>285</v>
@@ -6026,13 +6115,13 @@
         <v>0</v>
       </c>
       <c r="T58" s="0" t="n">
-        <v>0.61</v>
+        <v>0.65</v>
       </c>
       <c r="U58" s="0" t="n">
-        <v>0.69</v>
+        <v>0.7</v>
       </c>
       <c r="V58" s="0" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="W58" s="0" t="n">
         <v>285</v>
@@ -6041,10 +6130,10 @@
         <v>0</v>
       </c>
       <c r="Z58" s="0" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AA58" s="0" t="n">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="AB58" s="0" t="n">
         <v>0.69</v>
@@ -6168,10 +6257,10 @@
         <v>0.94</v>
       </c>
       <c r="O60" s="0" t="n">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="P60" s="0" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="Q60" s="0" t="n">
         <v>1521</v>
@@ -6183,10 +6272,10 @@
         <v>0.94</v>
       </c>
       <c r="U60" s="0" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="V60" s="0" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="W60" s="0" t="n">
         <v>1521</v>
@@ -6242,13 +6331,13 @@
         <v>6</v>
       </c>
       <c r="N61" s="0" t="n">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="O61" s="0" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="P61" s="0" t="n">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="Q61" s="0" t="n">
         <v>1806</v>
@@ -6257,13 +6346,13 @@
         <v>6</v>
       </c>
       <c r="T61" s="0" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
       <c r="U61" s="0" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="V61" s="0" t="n">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="W61" s="0" t="n">
         <v>1806</v>
@@ -6275,7 +6364,7 @@
         <v>0.53</v>
       </c>
       <c r="AA61" s="0" t="n">
-        <v>0.56</v>
+        <v>0.55</v>
       </c>
       <c r="AB61" s="0" t="n">
         <v>0.54</v>
@@ -6292,7 +6381,7 @@
         <v>24</v>
       </c>
       <c r="M64" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S64" s="0" t="s">
         <v>24</v>
@@ -6398,13 +6487,13 @@
         <v>0</v>
       </c>
       <c r="N66" s="0" t="n">
-        <v>0.41</v>
+        <v>0.34</v>
       </c>
       <c r="O66" s="0" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="P66" s="0" t="n">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="Q66" s="0" t="n">
         <v>117</v>
@@ -6416,10 +6505,10 @@
         <v>0.32</v>
       </c>
       <c r="U66" s="0" t="n">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="V66" s="0" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="W66" s="0" t="n">
         <v>117</v>
@@ -6428,10 +6517,10 @@
         <v>0</v>
       </c>
       <c r="Z66" s="0" t="n">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="AA66" s="0" t="n">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="AB66" s="0" t="n">
         <v>0.36</v>
@@ -6475,13 +6564,13 @@
         <v>1</v>
       </c>
       <c r="N67" s="0" t="n">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="O67" s="0" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="P67" s="0" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="Q67" s="0" t="n">
         <v>1559</v>
@@ -6490,7 +6579,7 @@
         <v>1</v>
       </c>
       <c r="T67" s="0" t="n">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="U67" s="0" t="n">
         <v>0.86</v>
@@ -6508,10 +6597,10 @@
         <v>0.94</v>
       </c>
       <c r="AA67" s="0" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="AB67" s="0" t="n">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="AC67" s="0" t="n">
         <v>1559</v>
@@ -6552,13 +6641,13 @@
         <v>2</v>
       </c>
       <c r="N68" s="0" t="n">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="O68" s="0" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="P68" s="0" t="n">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="Q68" s="0" t="n">
         <v>351</v>
@@ -6567,13 +6656,13 @@
         <v>2</v>
       </c>
       <c r="T68" s="0" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="U68" s="0" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="V68" s="0" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="W68" s="0" t="n">
         <v>351</v>
@@ -6582,10 +6671,10 @@
         <v>2</v>
       </c>
       <c r="Z68" s="0" t="n">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="AA68" s="0" t="n">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="AB68" s="0" t="n">
         <v>0.74</v>
@@ -6629,13 +6718,13 @@
         <v>6</v>
       </c>
       <c r="N69" s="0" t="n">
-        <v>0.69</v>
+        <v>0.65</v>
       </c>
       <c r="O69" s="0" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="P69" s="0" t="n">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="Q69" s="0" t="n">
         <v>2027</v>
@@ -6644,13 +6733,13 @@
         <v>6</v>
       </c>
       <c r="T69" s="0" t="n">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="U69" s="0" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="V69" s="0" t="n">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="W69" s="0" t="n">
         <v>2027</v>
@@ -6659,7 +6748,7 @@
         <v>6</v>
       </c>
       <c r="Z69" s="0" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="AA69" s="0" t="n">
         <v>0.7</v>
@@ -6785,13 +6874,13 @@
         <v>0</v>
       </c>
       <c r="N73" s="0" t="n">
-        <v>0.67</v>
+        <v>0.61</v>
       </c>
       <c r="O73" s="0" t="n">
-        <v>0.64</v>
+        <v>0.54</v>
       </c>
       <c r="P73" s="0" t="n">
-        <v>0.65</v>
+        <v>0.57</v>
       </c>
       <c r="Q73" s="0" t="n">
         <v>165</v>
@@ -6800,13 +6889,13 @@
         <v>0</v>
       </c>
       <c r="T73" s="0" t="n">
-        <v>0.74</v>
+        <v>0.67</v>
       </c>
       <c r="U73" s="0" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="V73" s="0" t="n">
         <v>0.61</v>
-      </c>
-      <c r="V73" s="0" t="n">
-        <v>0.66</v>
       </c>
       <c r="W73" s="0" t="n">
         <v>165</v>
@@ -6815,13 +6904,13 @@
         <v>0</v>
       </c>
       <c r="Z73" s="0" t="n">
-        <v>0.66</v>
+        <v>0.63</v>
       </c>
       <c r="AA73" s="0" t="n">
         <v>0.62</v>
       </c>
       <c r="AB73" s="0" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="AC73" s="0" t="n">
         <v>165</v>
@@ -6862,13 +6951,13 @@
         <v>1</v>
       </c>
       <c r="N74" s="0" t="n">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="O74" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="P74" s="0" t="n">
         <v>0.91</v>
-      </c>
-      <c r="P74" s="0" t="n">
-        <v>0.93</v>
       </c>
       <c r="Q74" s="0" t="n">
         <v>501</v>
@@ -6880,10 +6969,10 @@
         <v>0.92</v>
       </c>
       <c r="U74" s="0" t="n">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="V74" s="0" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="W74" s="0" t="n">
         <v>501</v>
@@ -6892,13 +6981,13 @@
         <v>1</v>
       </c>
       <c r="Z74" s="0" t="n">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="AA74" s="0" t="n">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="AB74" s="0" t="n">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="AC74" s="0" t="n">
         <v>501</v>
@@ -6939,13 +7028,13 @@
         <v>2</v>
       </c>
       <c r="N75" s="0" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="O75" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="P75" s="0" t="n">
         <v>0.9</v>
-      </c>
-      <c r="O75" s="0" t="n">
-        <v>0.94</v>
-      </c>
-      <c r="P75" s="0" t="n">
-        <v>0.92</v>
       </c>
       <c r="Q75" s="0" t="n">
         <v>612</v>
@@ -6954,13 +7043,13 @@
         <v>2</v>
       </c>
       <c r="T75" s="0" t="n">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="U75" s="0" t="n">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="V75" s="0" t="n">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="W75" s="0" t="n">
         <v>612</v>
@@ -6969,13 +7058,13 @@
         <v>2</v>
       </c>
       <c r="Z75" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AA75" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AB75" s="0" t="n">
         <v>0.88</v>
-      </c>
-      <c r="AA75" s="0" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AB75" s="0" t="n">
-        <v>0.9</v>
       </c>
       <c r="AC75" s="0" t="n">
         <v>612</v>
@@ -7013,70 +7102,70 @@
       <c r="K76" s="2" t="n">
         <v>1278</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N76" s="3" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="O76" s="3" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="P76" s="3" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="Q76" s="3" t="n">
+      <c r="M76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N76" s="2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="O76" s="2" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="P76" s="2" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="Q76" s="2" t="n">
         <v>1278</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T76" s="3" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="U76" s="3" t="n">
+      <c r="S76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T76" s="2" t="n">
         <v>0.81</v>
       </c>
-      <c r="V76" s="3" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="W76" s="3" t="n">
+      <c r="U76" s="2" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="V76" s="2" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="W76" s="2" t="n">
         <v>1278</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z76" s="3" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AA76" s="3" t="n">
+      <c r="Y76" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z76" s="2" t="n">
         <v>0.81</v>
       </c>
-      <c r="AB76" s="3" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="AC76" s="3" t="n">
+      <c r="AA76" s="2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AB76" s="2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AC76" s="2" t="n">
         <v>1278</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M79" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S79" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y79" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="80" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0"/>
       <c r="B80" s="0" t="s">
         <v>2</v>
@@ -7104,44 +7193,47 @@
       <c r="K80" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="N80" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O80" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="P80" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q80" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="T80" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="U80" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="V80" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W80" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z80" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA80" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB80" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC80" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M80" s="0"/>
+      <c r="N80" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O80" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q80" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="S80" s="0"/>
+      <c r="T80" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U80" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="V80" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="W80" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y80" s="0"/>
+      <c r="Z80" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA80" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB80" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC80" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="n">
         <v>0</v>
       </c>
@@ -7173,53 +7265,53 @@
       <c r="K81" s="0" t="n">
         <v>129</v>
       </c>
-      <c r="M81" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N81" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="O81" s="4" t="n">
+      <c r="M81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="O81" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="P81" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="Q81" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="S81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T81" s="0" t="n">
         <v>0.74</v>
       </c>
-      <c r="P81" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="Q81" s="4" t="n">
+      <c r="U81" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="V81" s="0" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="W81" s="0" t="n">
         <v>129</v>
       </c>
-      <c r="S81" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T81" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="U81" s="4" t="n">
+      <c r="Y81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="0" t="n">
         <v>0.72</v>
       </c>
-      <c r="V81" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="W81" s="4" t="n">
+      <c r="AA81" s="0" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="AB81" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AC81" s="0" t="n">
         <v>129</v>
       </c>
-      <c r="Y81" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z81" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="AA81" s="4" t="n">
-        <v>0.69</v>
-      </c>
-      <c r="AB81" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="AC81" s="4" t="n">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="82" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="82" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="n">
         <v>1</v>
       </c>
@@ -7251,53 +7343,53 @@
       <c r="K82" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M82" s="4" t="n">
+      <c r="M82" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="N82" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O82" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P82" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q82" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S82" s="4" t="n">
+      <c r="N82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S82" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="T82" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U82" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V82" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W82" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y82" s="4" t="n">
+      <c r="T82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y82" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="Z82" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA82" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB82" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC82" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Z82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC82" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="n">
         <v>2</v>
       </c>
@@ -7329,53 +7421,53 @@
       <c r="K83" s="0" t="n">
         <v>499</v>
       </c>
-      <c r="M83" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N83" s="4" t="n">
+      <c r="M83" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="O83" s="0" t="n">
         <v>0.93</v>
       </c>
-      <c r="O83" s="4" t="n">
+      <c r="P83" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="Q83" s="0" t="n">
+        <v>499</v>
+      </c>
+      <c r="S83" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T83" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="U83" s="0" t="n">
         <v>0.94</v>
       </c>
-      <c r="P83" s="4" t="n">
-        <v>0.94</v>
-      </c>
-      <c r="Q83" s="4" t="n">
+      <c r="V83" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="W83" s="0" t="n">
         <v>499</v>
       </c>
-      <c r="S83" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="T83" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="U83" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="V83" s="4" t="n">
-        <v>0.94</v>
-      </c>
-      <c r="W83" s="4" t="n">
+      <c r="Y83" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z83" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AA83" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AB83" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AC83" s="0" t="n">
         <v>499</v>
       </c>
-      <c r="Y83" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z83" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AA83" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AB83" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AC83" s="4" t="n">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="84" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="84" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
         <v>6</v>
       </c>
@@ -7407,53 +7499,53 @@
       <c r="K84" s="2" t="n">
         <v>628</v>
       </c>
-      <c r="M84" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="N84" s="5" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="O84" s="5" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="P84" s="5" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="Q84" s="5" t="n">
+      <c r="M84" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N84" s="2" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="O84" s="2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="P84" s="2" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="Q84" s="2" t="n">
         <v>628</v>
       </c>
-      <c r="S84" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="T84" s="5" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="U84" s="5" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="V84" s="5" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="W84" s="5" t="n">
+      <c r="S84" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T84" s="2" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="U84" s="2" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="V84" s="2" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="W84" s="2" t="n">
         <v>628</v>
       </c>
-      <c r="Y84" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z84" s="5" t="n">
+      <c r="Y84" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z84" s="2" t="n">
         <v>0.55</v>
       </c>
-      <c r="AA84" s="5" t="n">
+      <c r="AA84" s="2" t="n">
         <v>0.54</v>
       </c>
-      <c r="AB84" s="5" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="AC84" s="5" t="n">
+      <c r="AB84" s="2" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AC84" s="2" t="n">
         <v>628</v>
       </c>
     </row>
-    <row r="85" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0"/>
       <c r="B85" s="0"/>
       <c r="C85" s="0"/>
@@ -7465,8 +7557,23 @@
       <c r="I85" s="0"/>
       <c r="J85" s="0"/>
       <c r="K85" s="0"/>
-    </row>
-    <row r="86" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M85" s="0"/>
+      <c r="N85" s="0"/>
+      <c r="O85" s="0"/>
+      <c r="P85" s="0"/>
+      <c r="Q85" s="0"/>
+      <c r="S85" s="0"/>
+      <c r="T85" s="0"/>
+      <c r="U85" s="0"/>
+      <c r="V85" s="0"/>
+      <c r="W85" s="0"/>
+      <c r="Y85" s="0"/>
+      <c r="Z85" s="0"/>
+      <c r="AA85" s="0"/>
+      <c r="AB85" s="0"/>
+      <c r="AC85" s="0"/>
+    </row>
+    <row r="86" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0"/>
       <c r="B86" s="0"/>
       <c r="C86" s="0"/>
@@ -7478,8 +7585,23 @@
       <c r="I86" s="0"/>
       <c r="J86" s="0"/>
       <c r="K86" s="0"/>
-    </row>
-    <row r="87" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M86" s="0"/>
+      <c r="N86" s="0"/>
+      <c r="O86" s="0"/>
+      <c r="P86" s="0"/>
+      <c r="Q86" s="0"/>
+      <c r="S86" s="0"/>
+      <c r="T86" s="0"/>
+      <c r="U86" s="0"/>
+      <c r="V86" s="0"/>
+      <c r="W86" s="0"/>
+      <c r="Y86" s="0"/>
+      <c r="Z86" s="0"/>
+      <c r="AA86" s="0"/>
+      <c r="AB86" s="0"/>
+      <c r="AC86" s="0"/>
+    </row>
+    <row r="87" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
         <v>24</v>
       </c>
@@ -7495,17 +7617,29 @@
       <c r="I87" s="0"/>
       <c r="J87" s="0"/>
       <c r="K87" s="0"/>
-      <c r="M87" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="S87" s="4" t="s">
+      <c r="M87" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="Y87" s="4" t="s">
+      <c r="N87" s="0"/>
+      <c r="O87" s="0"/>
+      <c r="P87" s="0"/>
+      <c r="Q87" s="0"/>
+      <c r="S87" s="0" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="88" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T87" s="0"/>
+      <c r="U87" s="0"/>
+      <c r="V87" s="0"/>
+      <c r="W87" s="0"/>
+      <c r="Y87" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z87" s="0"/>
+      <c r="AA87" s="0"/>
+      <c r="AB87" s="0"/>
+      <c r="AC87" s="0"/>
+    </row>
+    <row r="88" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0"/>
       <c r="B88" s="0" t="s">
         <v>2</v>
@@ -7533,44 +7667,47 @@
       <c r="K88" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="N88" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O88" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="P88" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q88" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="T88" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="U88" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="V88" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="W88" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z88" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA88" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB88" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC88" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M88" s="0"/>
+      <c r="N88" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O88" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="P88" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q88" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="S88" s="0"/>
+      <c r="T88" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U88" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="V88" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="W88" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y88" s="0"/>
+      <c r="Z88" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA88" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB88" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC88" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="n">
         <v>0</v>
       </c>
@@ -7602,53 +7739,53 @@
       <c r="K89" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="M89" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N89" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="O89" s="4" t="n">
+      <c r="M89" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="O89" s="0" t="n">
         <v>0.28</v>
       </c>
-      <c r="P89" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="Q89" s="4" t="n">
+      <c r="P89" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="Q89" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="S89" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T89" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="U89" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="V89" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="W89" s="4" t="n">
+      <c r="S89" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T89" s="0" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="U89" s="0" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="V89" s="0" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="W89" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="Y89" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z89" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AA89" s="4" t="n">
+      <c r="Y89" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AA89" s="0" t="n">
         <v>0.36</v>
       </c>
-      <c r="AB89" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AC89" s="4" t="n">
+      <c r="AB89" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AC89" s="0" t="n">
         <v>36</v>
       </c>
     </row>
-    <row r="90" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="n">
         <v>1</v>
       </c>
@@ -7680,53 +7817,53 @@
       <c r="K90" s="0" t="n">
         <v>501</v>
       </c>
-      <c r="M90" s="4" t="n">
+      <c r="M90" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="N90" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="O90" s="4" t="n">
+      <c r="N90" s="0" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="O90" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="P90" s="0" t="n">
         <v>0.91</v>
       </c>
-      <c r="P90" s="4" t="n">
+      <c r="Q90" s="0" t="n">
+        <v>501</v>
+      </c>
+      <c r="S90" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T90" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="U90" s="0" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="V90" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="W90" s="0" t="n">
+        <v>501</v>
+      </c>
+      <c r="Y90" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z90" s="0" t="n">
         <v>0.93</v>
       </c>
-      <c r="Q90" s="4" t="n">
+      <c r="AA90" s="0" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AB90" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AC90" s="0" t="n">
         <v>501</v>
       </c>
-      <c r="S90" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="T90" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="U90" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="V90" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="W90" s="4" t="n">
-        <v>501</v>
-      </c>
-      <c r="Y90" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z90" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AA90" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="AB90" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AC90" s="4" t="n">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="91" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="91" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
         <v>2</v>
       </c>
@@ -7758,53 +7895,53 @@
       <c r="K91" s="0" t="n">
         <v>113</v>
       </c>
-      <c r="M91" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N91" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="O91" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="P91" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="Q91" s="4" t="n">
+      <c r="M91" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N91" s="0" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="O91" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="P91" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="Q91" s="0" t="n">
         <v>113</v>
       </c>
-      <c r="S91" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="T91" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="U91" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="V91" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="W91" s="4" t="n">
+      <c r="S91" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T91" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="U91" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="V91" s="0" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="W91" s="0" t="n">
         <v>113</v>
       </c>
-      <c r="Y91" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z91" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="AA91" s="4" t="n">
-        <v>0.94</v>
-      </c>
-      <c r="AB91" s="4" t="n">
+      <c r="Y91" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z91" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AA91" s="0" t="n">
         <v>0.82</v>
       </c>
-      <c r="AC91" s="4" t="n">
+      <c r="AB91" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AC91" s="0" t="n">
         <v>113</v>
       </c>
     </row>
-    <row r="92" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
         <v>6</v>
       </c>
@@ -7836,65 +7973,71 @@
       <c r="K92" s="2" t="n">
         <v>650</v>
       </c>
-      <c r="M92" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="N92" s="5" t="n">
+      <c r="M92" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N92" s="2" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="O92" s="2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="P92" s="2" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="Q92" s="2" t="n">
+        <v>650</v>
+      </c>
+      <c r="S92" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T92" s="2" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="U92" s="2" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="V92" s="2" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="W92" s="2" t="n">
+        <v>650</v>
+      </c>
+      <c r="Y92" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z92" s="2" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AA92" s="2" t="n">
         <v>0.68</v>
       </c>
-      <c r="O92" s="5" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="P92" s="5" t="n">
-        <v>0.69</v>
-      </c>
-      <c r="Q92" s="5" t="n">
+      <c r="AB92" s="2" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AC92" s="2" t="n">
         <v>650</v>
       </c>
-      <c r="S92" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="T92" s="5" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="U92" s="5" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="V92" s="5" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="W92" s="5" t="n">
-        <v>650</v>
-      </c>
-      <c r="Y92" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z92" s="5" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="AA92" s="5" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="AB92" s="5" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="AC92" s="5" t="n">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="95" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M95" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S95" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y95" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="T95" s="1"/>
+      <c r="U95" s="1"/>
+      <c r="V95" s="1"/>
+      <c r="W95" s="1"/>
+      <c r="Y95" s="1"/>
+      <c r="Z95" s="1"/>
+      <c r="AA95" s="1"/>
+      <c r="AB95" s="1"/>
+      <c r="AC95" s="1"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="0" t="s">
@@ -7993,13 +8136,13 @@
         <v>0</v>
       </c>
       <c r="N97" s="0" t="n">
-        <v>0.49</v>
+        <v>0.58</v>
       </c>
       <c r="O97" s="0" t="n">
         <v>0.65</v>
       </c>
       <c r="P97" s="0" t="n">
-        <v>0.56</v>
+        <v>0.62</v>
       </c>
       <c r="Q97" s="0" t="n">
         <v>402</v>
@@ -8008,13 +8151,13 @@
         <v>0</v>
       </c>
       <c r="T97" s="0" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="U97" s="0" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="V97" s="0" t="n">
         <v>0.55</v>
-      </c>
-      <c r="V97" s="0" t="n">
-        <v>0.54</v>
       </c>
       <c r="W97" s="0" t="n">
         <v>402</v>
@@ -8070,13 +8213,13 @@
         <v>1</v>
       </c>
       <c r="N98" s="0" t="n">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="O98" s="0" t="n">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="P98" s="0" t="n">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="Q98" s="0" t="n">
         <v>1559</v>
@@ -8147,13 +8290,13 @@
         <v>2</v>
       </c>
       <c r="N99" s="0" t="n">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="O99" s="0" t="n">
-        <v>0.86</v>
+        <v>0.92</v>
       </c>
       <c r="P99" s="0" t="n">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="Q99" s="0" t="n">
         <v>1872</v>
@@ -8162,13 +8305,13 @@
         <v>2</v>
       </c>
       <c r="T99" s="0" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="U99" s="0" t="n">
         <v>0.91</v>
       </c>
       <c r="V99" s="0" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="W99" s="0" t="n">
         <v>1872</v>
@@ -8180,7 +8323,7 @@
         <v>0.88</v>
       </c>
       <c r="AA99" s="0" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="AB99" s="0" t="n">
         <v>0.9</v>
@@ -8224,13 +8367,13 @@
         <v>6</v>
       </c>
       <c r="N100" s="0" t="n">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="O100" s="0" t="n">
-        <v>0.79</v>
+        <v>0.81</v>
       </c>
       <c r="P100" s="0" t="n">
-        <v>0.77</v>
+        <v>0.81</v>
       </c>
       <c r="Q100" s="0" t="n">
         <v>3833</v>
@@ -8239,13 +8382,13 @@
         <v>6</v>
       </c>
       <c r="T100" s="0" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="U100" s="0" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="V100" s="0" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="W100" s="0" t="n">
         <v>3833</v>
@@ -8260,7 +8403,7 @@
         <v>0.81</v>
       </c>
       <c r="AB100" s="0" t="n">
-        <v>0.8</v>
+        <v>0.81</v>
       </c>
       <c r="AC100" s="0" t="n">
         <v>3833</v>
@@ -8268,19 +8411,19 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M103" s="0" t="s">
         <v>23</v>
       </c>
       <c r="S103" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y103" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8380,13 +8523,13 @@
         <v>0</v>
       </c>
       <c r="N105" s="0" t="n">
-        <v>0.54</v>
+        <v>0.63</v>
       </c>
       <c r="O105" s="0" t="n">
         <v>0.77</v>
       </c>
       <c r="P105" s="0" t="n">
-        <v>0.64</v>
+        <v>0.7</v>
       </c>
       <c r="Q105" s="0" t="n">
         <v>285</v>
@@ -8395,13 +8538,13 @@
         <v>0</v>
       </c>
       <c r="T105" s="0" t="n">
-        <v>0.57</v>
+        <v>0.59</v>
       </c>
       <c r="U105" s="0" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="V105" s="0" t="n">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="W105" s="0" t="n">
         <v>285</v>
@@ -8410,10 +8553,10 @@
         <v>0</v>
       </c>
       <c r="Z105" s="0" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="AA105" s="0" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="AB105" s="0" t="n">
         <v>0.69</v>
@@ -8534,13 +8677,13 @@
         <v>2</v>
       </c>
       <c r="N107" s="0" t="n">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="O107" s="0" t="n">
-        <v>0.87</v>
+        <v>0.91</v>
       </c>
       <c r="P107" s="0" t="n">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="Q107" s="0" t="n">
         <v>1521</v>
@@ -8549,10 +8692,10 @@
         <v>2</v>
       </c>
       <c r="T107" s="0" t="n">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="U107" s="0" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="V107" s="0" t="n">
         <v>0.92</v>
@@ -8611,13 +8754,13 @@
         <v>6</v>
       </c>
       <c r="N108" s="0" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="O108" s="0" t="n">
-        <v>0.55</v>
+        <v>0.56</v>
       </c>
       <c r="P108" s="0" t="n">
-        <v>0.52</v>
+        <v>0.54</v>
       </c>
       <c r="Q108" s="0" t="n">
         <v>1806</v>
@@ -8626,7 +8769,7 @@
         <v>6</v>
       </c>
       <c r="T108" s="0" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="U108" s="0" t="n">
         <v>0.52</v>
@@ -8661,7 +8804,7 @@
         <v>24</v>
       </c>
       <c r="M111" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S111" s="0" t="s">
         <v>24</v>
@@ -8767,13 +8910,13 @@
         <v>0</v>
       </c>
       <c r="N113" s="0" t="n">
-        <v>0.32</v>
+        <v>0.41</v>
       </c>
       <c r="O113" s="0" t="n">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="P113" s="0" t="n">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="Q113" s="0" t="n">
         <v>117</v>
@@ -8782,13 +8925,13 @@
         <v>0</v>
       </c>
       <c r="T113" s="0" t="n">
-        <v>0.37</v>
+        <v>0.38</v>
       </c>
       <c r="U113" s="0" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
       <c r="V113" s="0" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="W113" s="0" t="n">
         <v>117</v>
@@ -8797,13 +8940,13 @@
         <v>0</v>
       </c>
       <c r="Z113" s="0" t="n">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="AA113" s="0" t="n">
-        <v>0.34</v>
+        <v>0.36</v>
       </c>
       <c r="AB113" s="0" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="AC113" s="0" t="n">
         <v>117</v>
@@ -8844,13 +8987,13 @@
         <v>1</v>
       </c>
       <c r="N114" s="0" t="n">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="O114" s="0" t="n">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="P114" s="0" t="n">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="Q114" s="0" t="n">
         <v>1559</v>
@@ -8874,7 +9017,7 @@
         <v>1</v>
       </c>
       <c r="Z114" s="0" t="n">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="AA114" s="0" t="n">
         <v>0.87</v>
@@ -8921,13 +9064,13 @@
         <v>2</v>
       </c>
       <c r="N115" s="0" t="n">
-        <v>0.58</v>
+        <v>0.66</v>
       </c>
       <c r="O115" s="0" t="n">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="P115" s="0" t="n">
-        <v>0.68</v>
+        <v>0.77</v>
       </c>
       <c r="Q115" s="0" t="n">
         <v>351</v>
@@ -8936,13 +9079,13 @@
         <v>2</v>
       </c>
       <c r="T115" s="0" t="n">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="U115" s="0" t="n">
-        <v>0.93</v>
+        <v>0.94</v>
       </c>
       <c r="V115" s="0" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="W115" s="0" t="n">
         <v>351</v>
@@ -8998,13 +9141,13 @@
         <v>6</v>
       </c>
       <c r="N116" s="0" t="n">
-        <v>0.61</v>
+        <v>0.67</v>
       </c>
       <c r="O116" s="0" t="n">
-        <v>0.68</v>
+        <v>0.73</v>
       </c>
       <c r="P116" s="0" t="n">
-        <v>0.64</v>
+        <v>0.69</v>
       </c>
       <c r="Q116" s="0" t="n">
         <v>2027</v>
@@ -9013,13 +9156,13 @@
         <v>6</v>
       </c>
       <c r="T116" s="0" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="U116" s="0" t="n">
-        <v>0.69</v>
+        <v>0.7</v>
       </c>
       <c r="V116" s="0" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="W116" s="0" t="n">
         <v>2027</v>
@@ -9034,7 +9177,7 @@
         <v>0.72</v>
       </c>
       <c r="AB116" s="0" t="n">
-        <v>0.68</v>
+        <v>0.69</v>
       </c>
       <c r="AC116" s="0" t="n">
         <v>2027</v>
@@ -9154,13 +9297,13 @@
         <v>0</v>
       </c>
       <c r="N120" s="0" t="n">
-        <v>0.67</v>
+        <v>0.61</v>
       </c>
       <c r="O120" s="0" t="n">
-        <v>0.69</v>
+        <v>0.64</v>
       </c>
       <c r="P120" s="0" t="n">
-        <v>0.68</v>
+        <v>0.62</v>
       </c>
       <c r="Q120" s="0" t="n">
         <v>165</v>
@@ -9169,13 +9312,13 @@
         <v>0</v>
       </c>
       <c r="T120" s="0" t="n">
-        <v>0.66</v>
+        <v>0.69</v>
       </c>
       <c r="U120" s="0" t="n">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="V120" s="0" t="n">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="W120" s="0" t="n">
         <v>165</v>
@@ -9184,13 +9327,13 @@
         <v>0</v>
       </c>
       <c r="Z120" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AA120" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AB120" s="0" t="n">
         <v>0.63</v>
-      </c>
-      <c r="AA120" s="0" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="AB120" s="0" t="n">
-        <v>0.61</v>
       </c>
       <c r="AC120" s="0" t="n">
         <v>165</v>
@@ -9231,13 +9374,13 @@
         <v>1</v>
       </c>
       <c r="N121" s="0" t="n">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="O121" s="0" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="P121" s="0" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="Q121" s="0" t="n">
         <v>501</v>
@@ -9308,13 +9451,13 @@
         <v>2</v>
       </c>
       <c r="N122" s="0" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="O122" s="0" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="P122" s="0" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="Q122" s="0" t="n">
         <v>612</v>
@@ -9338,10 +9481,10 @@
         <v>2</v>
       </c>
       <c r="Z122" s="0" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AA122" s="0" t="n">
-        <v>0.94</v>
+        <v>0.93</v>
       </c>
       <c r="AB122" s="0" t="n">
         <v>0.91</v>
@@ -9382,67 +9525,67 @@
       <c r="K123" s="2" t="n">
         <v>1278</v>
       </c>
-      <c r="M123" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N123" s="3" t="n">
+      <c r="M123" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N123" s="2" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="O123" s="2" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="P123" s="2" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="Q123" s="2" t="n">
+        <v>1278</v>
+      </c>
+      <c r="S123" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T123" s="2" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="U123" s="2" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="V123" s="2" t="n">
         <v>0.83</v>
       </c>
-      <c r="O123" s="3" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="P123" s="3" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="Q123" s="3" t="n">
+      <c r="W123" s="2" t="n">
         <v>1278</v>
       </c>
-      <c r="S123" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T123" s="3" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="U123" s="3" t="n">
-        <v>0.81</v>
-      </c>
-      <c r="V123" s="3" t="n">
+      <c r="Y123" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z123" s="2" t="n">
         <v>0.82</v>
       </c>
-      <c r="W123" s="3" t="n">
-        <v>1278</v>
-      </c>
-      <c r="Y123" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z123" s="3" t="n">
+      <c r="AA123" s="2" t="n">
         <v>0.82</v>
       </c>
-      <c r="AA123" s="3" t="n">
-        <v>0.81</v>
-      </c>
-      <c r="AB123" s="3" t="n">
+      <c r="AB123" s="2" t="n">
         <v>0.82</v>
       </c>
-      <c r="AC123" s="3" t="n">
+      <c r="AC123" s="2" t="n">
         <v>1278</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M126" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S126" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y126" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9542,13 +9685,13 @@
         <v>0</v>
       </c>
       <c r="N128" s="0" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="O128" s="0" t="n">
-        <v>0.79</v>
+        <v>0.71</v>
       </c>
       <c r="P128" s="0" t="n">
-        <v>0.76</v>
+        <v>0.71</v>
       </c>
       <c r="Q128" s="0" t="n">
         <v>129</v>
@@ -9557,7 +9700,7 @@
         <v>0</v>
       </c>
       <c r="T128" s="0" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="U128" s="0" t="n">
         <v>0.71</v>
@@ -9575,10 +9718,10 @@
         <v>0.72</v>
       </c>
       <c r="AA128" s="0" t="n">
-        <v>0.66</v>
+        <v>0.71</v>
       </c>
       <c r="AB128" s="0" t="n">
-        <v>0.69</v>
+        <v>0.72</v>
       </c>
       <c r="AC128" s="0" t="n">
         <v>129</v>
@@ -9696,13 +9839,13 @@
         <v>2</v>
       </c>
       <c r="N130" s="0" t="n">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="O130" s="0" t="n">
         <v>0.92</v>
       </c>
       <c r="P130" s="0" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="Q130" s="0" t="n">
         <v>499</v>
@@ -9714,7 +9857,7 @@
         <v>0.93</v>
       </c>
       <c r="U130" s="0" t="n">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="V130" s="0" t="n">
         <v>0.94</v>
@@ -9726,13 +9869,13 @@
         <v>2</v>
       </c>
       <c r="Z130" s="0" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AA130" s="0" t="n">
         <v>0.93</v>
       </c>
       <c r="AB130" s="0" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="AC130" s="0" t="n">
         <v>499</v>
@@ -9770,49 +9913,49 @@
       <c r="K131" s="2" t="n">
         <v>628</v>
       </c>
-      <c r="M131" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N131" s="3" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="O131" s="3" t="n">
+      <c r="M131" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N131" s="2" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="O131" s="2" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="P131" s="2" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="Q131" s="2" t="n">
+        <v>628</v>
+      </c>
+      <c r="S131" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T131" s="2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="U131" s="2" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="V131" s="2" t="n">
         <v>0.57</v>
       </c>
-      <c r="P131" s="3" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="Q131" s="3" t="n">
+      <c r="W131" s="2" t="n">
         <v>628</v>
       </c>
-      <c r="S131" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T131" s="3" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="U131" s="3" t="n">
-        <v>0.56</v>
-      </c>
-      <c r="V131" s="3" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="W131" s="3" t="n">
-        <v>628</v>
-      </c>
-      <c r="Y131" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z131" s="3" t="n">
+      <c r="Y131" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z131" s="2" t="n">
         <v>0.55</v>
       </c>
-      <c r="AA131" s="3" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AB131" s="3" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="AC131" s="3" t="n">
+      <c r="AA131" s="2" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AB131" s="2" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AC131" s="2" t="n">
         <v>628</v>
       </c>
     </row>
@@ -9930,13 +10073,13 @@
         <v>0</v>
       </c>
       <c r="N136" s="0" t="n">
-        <v>0.4</v>
+        <v>0.32</v>
       </c>
       <c r="O136" s="0" t="n">
-        <v>0.33</v>
+        <v>0.39</v>
       </c>
       <c r="P136" s="0" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="Q136" s="0" t="n">
         <v>36</v>
@@ -9945,13 +10088,13 @@
         <v>0</v>
       </c>
       <c r="T136" s="0" t="n">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="U136" s="0" t="n">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="V136" s="0" t="n">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
       <c r="W136" s="0" t="n">
         <v>36</v>
@@ -9960,13 +10103,13 @@
         <v>0</v>
       </c>
       <c r="Z136" s="0" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="AA136" s="0" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="AB136" s="0" t="n">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="AC136" s="0" t="n">
         <v>36</v>
@@ -10007,13 +10150,13 @@
         <v>1</v>
       </c>
       <c r="N137" s="0" t="n">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="O137" s="0" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="P137" s="0" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="Q137" s="0" t="n">
         <v>501</v>
@@ -10022,7 +10165,7 @@
         <v>1</v>
       </c>
       <c r="T137" s="0" t="n">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="U137" s="0" t="n">
         <v>0.89</v>
@@ -10084,13 +10227,13 @@
         <v>2</v>
       </c>
       <c r="N138" s="0" t="n">
-        <v>0.65</v>
+        <v>0.74</v>
       </c>
       <c r="O138" s="0" t="n">
         <v>0.96</v>
       </c>
       <c r="P138" s="0" t="n">
-        <v>0.77</v>
+        <v>0.84</v>
       </c>
       <c r="Q138" s="0" t="n">
         <v>113</v>
@@ -10099,13 +10242,13 @@
         <v>2</v>
       </c>
       <c r="T138" s="0" t="n">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="U138" s="0" t="n">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="V138" s="0" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="W138" s="0" t="n">
         <v>113</v>
@@ -10114,13 +10257,13 @@
         <v>2</v>
       </c>
       <c r="Z138" s="0" t="n">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="AA138" s="0" t="n">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="AB138" s="0" t="n">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="AC138" s="0" t="n">
         <v>113</v>
@@ -10158,49 +10301,49 @@
       <c r="K139" s="2" t="n">
         <v>650</v>
       </c>
-      <c r="M139" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="N139" s="3" t="n">
+      <c r="M139" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N139" s="2" t="n">
         <v>0.67</v>
       </c>
-      <c r="O139" s="3" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="P139" s="3" t="n">
+      <c r="O139" s="2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="P139" s="2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Q139" s="2" t="n">
+        <v>650</v>
+      </c>
+      <c r="S139" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T139" s="2" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="U139" s="2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="V139" s="2" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="W139" s="2" t="n">
+        <v>650</v>
+      </c>
+      <c r="Y139" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z139" s="2" t="n">
         <v>0.68</v>
       </c>
-      <c r="Q139" s="3" t="n">
-        <v>650</v>
-      </c>
-      <c r="S139" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="T139" s="3" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="U139" s="3" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="V139" s="3" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="W139" s="3" t="n">
-        <v>650</v>
-      </c>
-      <c r="Y139" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z139" s="3" t="n">
-        <v>0.69</v>
-      </c>
-      <c r="AA139" s="3" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="AB139" s="3" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="AC139" s="3" t="n">
+      <c r="AA139" s="2" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AB139" s="2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AC139" s="2" t="n">
         <v>650</v>
       </c>
     </row>
@@ -10220,10 +10363,2367 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:AC43"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="13:13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="6.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="5.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.1"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="6" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="29.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="5.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="8.1"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="S1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="Y1" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="W2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC2" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="W3" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="Y3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="0" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AA3" s="0" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AB3" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AC3" s="0" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1552</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>1552</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>1552</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="V4" s="0" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="W4" s="0" t="n">
+        <v>1552</v>
+      </c>
+      <c r="Y4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AA4" s="0" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AB4" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AC4" s="0" t="n">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>340</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>340</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>340</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="V5" s="0" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="W5" s="0" t="n">
+        <v>340</v>
+      </c>
+      <c r="Y5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="0" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AA5" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AB5" s="0" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AC5" s="0" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>2007</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>2007</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>2007</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="V6" s="0" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="W6" s="0" t="n">
+        <v>2007</v>
+      </c>
+      <c r="Y6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z6" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AA6" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AB6" s="0" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AC6" s="0" t="n">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y8" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U9" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="V9" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA9" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB9" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC9" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="U10" s="0" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="V10" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="W10" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="Y10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="0" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AA10" s="0" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AB10" s="0" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AC10" s="0" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>508</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>508</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>508</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="W11" s="0" t="n">
+        <v>508</v>
+      </c>
+      <c r="Y11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AA11" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AB11" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AC11" s="0" t="n">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="U12" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="V12" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="W12" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="Y12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z12" s="0" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AA12" s="0" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AB12" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AC12" s="0" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>670</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>670</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" s="2" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="O13" s="2" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="P13" s="2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="Q13" s="2" t="n">
+        <v>670</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T13" s="2" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="U13" s="2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="V13" s="2" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="W13" s="2" t="n">
+        <v>670</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z13" s="2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AA13" s="2" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AB13" s="2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="AC13" s="2" t="n">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O17" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U17" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="V17" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="W17" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z17" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA17" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB17" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC17" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="P18" s="0" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="Q18" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="S18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="U18" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="V18" s="0" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="W18" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="Y18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AA18" s="0" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AB18" s="0" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AC18" s="0" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>1552</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>1552</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="P19" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="Q19" s="0" t="n">
+        <v>1552</v>
+      </c>
+      <c r="S19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" s="0" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="U19" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="V19" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="W19" s="0" t="n">
+        <v>1552</v>
+      </c>
+      <c r="Y19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AA19" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AB19" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AC19" s="0" t="n">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>340</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>340</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>340</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T20" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="U20" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="V20" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="W20" s="0" t="n">
+        <v>340</v>
+      </c>
+      <c r="Y20" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z20" s="0" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="AA20" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AB20" s="0" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AC20" s="0" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>2007</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>2007</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>2007</v>
+      </c>
+      <c r="S21" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="T21" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="U21" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="V21" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="W21" s="0" t="n">
+        <v>2007</v>
+      </c>
+      <c r="Y21" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z21" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AA21" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AB21" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AC21" s="0" t="n">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="S23" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y23" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O24" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U24" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="V24" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="W24" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA24" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB24" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC24" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="P25" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q25" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="S25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="U25" s="0" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="V25" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="W25" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="Y25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="0" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AA25" s="0" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AB25" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AC25" s="0" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>508</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>508</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="O26" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="P26" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="Q26" s="0" t="n">
+        <v>508</v>
+      </c>
+      <c r="S26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="U26" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="V26" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="W26" s="0" t="n">
+        <v>508</v>
+      </c>
+      <c r="Y26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="0" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="AA26" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AB26" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AC26" s="0" t="n">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="O27" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="P27" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="Q27" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="S27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T27" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="U27" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="V27" s="0" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="W27" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="Y27" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z27" s="0" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AA27" s="0" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AB27" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AC27" s="0" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>670</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="K28" s="2" t="n">
+        <v>670</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N28" s="2" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="O28" s="2" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="P28" s="2" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="Q28" s="2" t="n">
+        <v>670</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T28" s="2" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="U28" s="2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="V28" s="2" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="W28" s="2" t="n">
+        <v>670</v>
+      </c>
+      <c r="Y28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z28" s="2" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AA28" s="2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AB28" s="2" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AC28" s="2" t="n">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="31" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O32" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="T32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U32" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="V32" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="W32" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z32" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA32" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB32" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC32" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="J33" s="0" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="M33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O33" s="0" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="P33" s="0" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="Q33" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="S33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" s="0" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="U33" s="0" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="V33" s="0" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="W33" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="Y33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="0" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AA33" s="0" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="AB33" s="0" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AC33" s="0" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>1552</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>1552</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="P34" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="Q34" s="0" t="n">
+        <v>1552</v>
+      </c>
+      <c r="S34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="U34" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="V34" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="W34" s="0" t="n">
+        <v>1552</v>
+      </c>
+      <c r="Y34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="0" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AA34" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AB34" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AC34" s="0" t="n">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>340</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>340</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="P35" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="Q35" s="0" t="n">
+        <v>340</v>
+      </c>
+      <c r="S35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T35" s="0" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="U35" s="0" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="V35" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="W35" s="0" t="n">
+        <v>340</v>
+      </c>
+      <c r="Y35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z35" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AA35" s="0" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="AB35" s="0" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AC35" s="0" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>2007</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>2007</v>
+      </c>
+      <c r="M36" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="P36" s="0" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="Q36" s="0" t="n">
+        <v>2007</v>
+      </c>
+      <c r="S36" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="T36" s="0" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="U36" s="0" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="V36" s="0" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="W36" s="0" t="n">
+        <v>2007</v>
+      </c>
+      <c r="Y36" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z36" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AA36" s="0" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AB36" s="0" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AC36" s="0" t="n">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="M38" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="S38" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y38" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="N39" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="O39" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="P39" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q39" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="T39" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="U39" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="V39" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="W39" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z39" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA39" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB39" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC39" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="M40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" s="0" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="O40" s="0" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="P40" s="0" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="Q40" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="S40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" s="0" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="U40" s="0" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="V40" s="0" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="W40" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="Y40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="0" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AA40" s="0" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AB40" s="0" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AC40" s="0" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>508</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <v>508</v>
+      </c>
+      <c r="M41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="O41" s="0" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="P41" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="Q41" s="0" t="n">
+        <v>508</v>
+      </c>
+      <c r="S41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" s="0" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="U41" s="0" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="V41" s="0" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="W41" s="0" t="n">
+        <v>508</v>
+      </c>
+      <c r="Y41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="0" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AA41" s="0" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AB41" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AC41" s="0" t="n">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="M42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="O42" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="P42" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Q42" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="S42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="T42" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="U42" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="V42" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="W42" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="Y42" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z42" s="0" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AA42" s="0" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AB42" s="0" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AC42" s="0" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>670</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H43" s="2" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I43" s="2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="J43" s="2" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="K43" s="2" t="n">
+        <v>670</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N43" s="2" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="O43" s="2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="P43" s="2" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="Q43" s="2" t="n">
+        <v>670</v>
+      </c>
+      <c r="S43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T43" s="2" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="U43" s="2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="V43" s="2" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="W43" s="2" t="n">
+        <v>670</v>
+      </c>
+      <c r="Y43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z43" s="2" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AA43" s="2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AB43" s="2" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AC43" s="2" t="n">
+        <v>670</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W1" activeCellId="1" sqref="139:139 W1"/>
+      <selection pane="topLeft" activeCell="W1" activeCellId="1" sqref="13:13 W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10628,24 +13128,24 @@
         <v>14</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>5</v>
       </c>
       <c r="H14" s="0" t="s">
@@ -10674,19 +13174,19 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B15" s="4" t="n">
+      <c r="A15" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" s="5" t="n">
         <v>0.57</v>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="5" t="n">
         <v>0.81</v>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15" s="5" t="n">
         <v>0.67</v>
       </c>
-      <c r="E15" s="4" t="n">
+      <c r="E15" s="5" t="n">
         <v>305</v>
       </c>
       <c r="G15" s="0" t="n">
@@ -10721,19 +13221,19 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B16" s="4" t="n">
+      <c r="A16" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" s="5" t="n">
         <v>0.96</v>
       </c>
-      <c r="C16" s="4" t="n">
+      <c r="C16" s="5" t="n">
         <v>0.88</v>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="D16" s="5" t="n">
         <v>0.92</v>
       </c>
-      <c r="E16" s="4" t="n">
+      <c r="E16" s="5" t="n">
         <v>1520</v>
       </c>
       <c r="G16" s="0" t="n">
@@ -10768,19 +13268,19 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="4" t="n">
+      <c r="A17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="5" t="n">
         <v>0.77</v>
       </c>
-      <c r="C17" s="4" t="n">
+      <c r="C17" s="5" t="n">
         <v>0.84</v>
       </c>
-      <c r="D17" s="4" t="n">
+      <c r="D17" s="5" t="n">
         <v>0.79</v>
       </c>
-      <c r="E17" s="4" t="n">
+      <c r="E17" s="5" t="n">
         <v>1825</v>
       </c>
       <c r="G17" s="0" t="s">
@@ -11009,7 +13509,7 @@
         <v>16</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>17</v>
